--- a/notebooks/KBG/input/Martinez-KBG-SupplTable-340.xlsx
+++ b/notebooks/KBG/input/Martinez-KBG-SupplTable-340.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rekerl/Documents/Programs/genophenocorr/notebooks/KBG/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CB52A-034B-144B-BE89-1ADBB7C45F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B697E06-4179-E24C-8CB5-35FC5F921914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{803D588F-09EA-0C47-AD79-65839C8D3941}"/>
+    <workbookView xWindow="-28780" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{803D588F-09EA-0C47-AD79-65839C8D3941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2166,9 +2166,6 @@
     <t>Goldenberg2016_P33</t>
   </si>
   <si>
-    <t>16q24.3(89 507776_89565 656)x1</t>
-  </si>
-  <si>
     <t>57Kb</t>
   </si>
   <si>
@@ -2790,9 +2787,6 @@
     <t>His upper and lower central incisors were apparently wider than normal. Oligodontia and fusion of the incisors were observed.Both lower central incisors had central clefts</t>
   </si>
   <si>
-    <t xml:space="preserve">16q24.2-q24.3 (88641808–89332049)x1 </t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -3213,9 +3207,6 @@
     <t>Ockeloen2015_P20</t>
   </si>
   <si>
-    <t>16q24.3(88231090–89388103)× 1</t>
-  </si>
-  <si>
     <t>ANKRD11, 20 other genes</t>
   </si>
   <si>
@@ -3259,9 +3250,6 @@
   </si>
   <si>
     <t>34 cm at birth</t>
-  </si>
-  <si>
-    <t>16q24.2q24.3 (87502161_89688617)x3</t>
   </si>
   <si>
     <t xml:space="preserve">RNF166, CTU2, PIEZO1, CDT1, APRT, GALNS, TRAPPC2L, PABPN1L, CBFA2T3, ACSF3, CDH15, SLC22A31, ZNF778, ANKRD11 </t>
@@ -3545,9 +3533,6 @@
     <t>&gt;p10</t>
   </si>
   <si>
-    <t>16q24.2-q24.3 (89283689_89429735)x1</t>
-  </si>
-  <si>
     <t>ANKDR11, ZNF778</t>
   </si>
   <si>
@@ -3695,9 +3680,6 @@
     <t>Focal nodular subependymal heterotopia and cerebrocerebellar atrophic changes</t>
   </si>
   <si>
-    <t>16q24.1q24.3 (86680657_89578069)×1</t>
-  </si>
-  <si>
     <t>FBXO31, JPH3, CA5A, ZNF469, CYBA, MVD, CTU2, PIEZO1, CDT1, APRT, GALNS, TRAPPC2L, ACSF3, CDH15, ANKRD11, SPG7</t>
   </si>
   <si>
@@ -3881,9 +3863,6 @@
     <t>paladar corto con dientes apiñados</t>
   </si>
   <si>
-    <t>16q24.3(87.92–88.10)</t>
-  </si>
-  <si>
     <t>"Partial deletion"</t>
   </si>
   <si>
@@ -3891,6 +3870,27 @@
   </si>
   <si>
     <t>Fleshy ear lobules, Transverse ear crease</t>
+  </si>
+  <si>
+    <t>16q24.3(89507776_89565656)x1</t>
+  </si>
+  <si>
+    <t>16q24.1q24.3(86680657_89578069)x1</t>
+  </si>
+  <si>
+    <t>16q24.2q24.3(87502161_89688617)x3</t>
+  </si>
+  <si>
+    <t>16q24.2-q24.3(89283689_89429735)x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16q24.2-q24.3 (88641808-89332049)x1 </t>
+  </si>
+  <si>
+    <t>16q24.3(88231090-89388103)x1</t>
+  </si>
+  <si>
+    <t>16q24.3(87920000-88100000)x1</t>
   </si>
 </sst>
 </file>
@@ -4102,7 +4102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4206,6 +4206,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4259,18 +4274,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4870,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B7F784-3CDA-8F4B-BD2E-1307B2675BF6}">
   <dimension ref="A1:CF342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="BP340" workbookViewId="0">
+      <selection activeCell="CA344" sqref="CA344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4893,92 +4896,92 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="44" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="47" t="s">
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="50" t="s">
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="51"/>
-      <c r="BS1" s="51"/>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="35" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="56"/>
+      <c r="BT1" s="56"/>
+      <c r="BU1" s="56"/>
+      <c r="BV1" s="56"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="36"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="37"/>
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41"/>
+      <c r="CA1" s="41"/>
+      <c r="CB1" s="41"/>
+      <c r="CC1" s="41"/>
+      <c r="CD1" s="41"/>
+      <c r="CE1" s="42"/>
       <c r="CF1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="112" x14ac:dyDescent="0.2">
@@ -5033,25 +5036,25 @@
       <c r="Q2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="35" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="35" t="s">
         <v>31</v>
       </c>
       <c r="Y2" s="8" t="s">
@@ -5060,7 +5063,7 @@
       <c r="Z2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="35" t="s">
         <v>34</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -5075,13 +5078,13 @@
       <c r="AE2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="53" t="s">
+      <c r="AF2" s="35" t="s">
         <v>39</v>
       </c>
       <c r="AG2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="53" t="s">
+      <c r="AH2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="AI2" s="8" t="s">
@@ -5093,31 +5096,31 @@
       <c r="AK2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="53" t="s">
+      <c r="AL2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="53" t="s">
+      <c r="AM2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="53" t="s">
+      <c r="AN2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="53" t="s">
+      <c r="AO2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="53" t="s">
+      <c r="AP2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="53" t="s">
+      <c r="AQ2" s="35" t="s">
         <v>50</v>
       </c>
       <c r="AR2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AS2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AT2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="AU2" s="11" t="s">
@@ -5126,7 +5129,7 @@
       <c r="AV2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AW2" s="56" t="s">
+      <c r="AW2" s="38" t="s">
         <v>56</v>
       </c>
       <c r="AX2" s="6" t="s">
@@ -5147,7 +5150,7 @@
       <c r="BC2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BD2" s="54" t="s">
+      <c r="BD2" s="36" t="s">
         <v>63</v>
       </c>
       <c r="BE2" s="6" t="s">
@@ -5165,19 +5168,19 @@
       <c r="BI2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BJ2" s="56" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="56" t="s">
+      <c r="BK2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="BL2" s="54" t="s">
+      <c r="BL2" s="36" t="s">
         <v>71</v>
       </c>
       <c r="BM2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BN2" s="54" t="s">
+      <c r="BN2" s="36" t="s">
         <v>73</v>
       </c>
       <c r="BO2" s="6" t="s">
@@ -5189,13 +5192,13 @@
       <c r="BQ2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BR2" s="54" t="s">
+      <c r="BR2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="BS2" s="54" t="s">
+      <c r="BS2" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="BT2" s="54" t="s">
+      <c r="BT2" s="36" t="s">
         <v>79</v>
       </c>
       <c r="BU2" s="6" t="s">
@@ -23498,7 +23501,7 @@
       <c r="BX74" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BY74" s="14" t="s">
+      <c r="BY74" s="39" t="s">
         <v>559</v>
       </c>
       <c r="BZ74" s="14" t="s">
@@ -23752,7 +23755,7 @@
       <c r="BX75" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BY75" s="14" t="s">
+      <c r="BY75" s="39" t="s">
         <v>559</v>
       </c>
       <c r="BZ75" s="14" t="s">
@@ -24006,7 +24009,7 @@
       <c r="BX76" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BY76" s="14" t="s">
+      <c r="BY76" s="39" t="s">
         <v>559</v>
       </c>
       <c r="BZ76" s="14" t="s">
@@ -36706,7 +36709,7 @@
       <c r="BX126" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BY126" s="14" t="s">
+      <c r="BY126" s="39" t="s">
         <v>682</v>
       </c>
       <c r="BZ126" s="14" t="s">
@@ -39247,7 +39250,7 @@
         <v>95</v>
       </c>
       <c r="BY136" s="14" t="s">
-        <v>709</v>
+        <v>1276</v>
       </c>
       <c r="BZ136" s="14" t="s">
         <v>104</v>
@@ -39262,7 +39265,7 @@
         <v>106</v>
       </c>
       <c r="CD136" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="CE136" s="14" t="s">
         <v>94</v>
@@ -39276,7 +39279,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C137" s="15">
         <v>1</v>
@@ -39501,7 +39504,7 @@
         <v>95</v>
       </c>
       <c r="BY137" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BZ137" s="14" t="s">
         <v>129</v>
@@ -39522,7 +39525,7 @@
         <v>108</v>
       </c>
       <c r="CF137" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -39530,7 +39533,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C138" s="15">
         <v>1</v>
@@ -39755,7 +39758,7 @@
         <v>95</v>
       </c>
       <c r="BY138" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BZ138" s="14" t="s">
         <v>129</v>
@@ -39776,7 +39779,7 @@
         <v>108</v>
       </c>
       <c r="CF138" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="139" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -39784,7 +39787,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C139" s="15">
         <v>1</v>
@@ -39910,7 +39913,7 @@
         <v>94</v>
       </c>
       <c r="AR139" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AS139" s="14" t="s">
         <v>95</v>
@@ -40009,7 +40012,7 @@
         <v>95</v>
       </c>
       <c r="BY139" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BZ139" s="14" t="s">
         <v>104</v>
@@ -40024,13 +40027,13 @@
         <v>106</v>
       </c>
       <c r="CD139" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="CE139" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF139" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="140" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -40038,7 +40041,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C140" s="15">
         <v>2</v>
@@ -40263,7 +40266,7 @@
         <v>95</v>
       </c>
       <c r="BY140" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="BZ140" s="14" t="s">
         <v>129</v>
@@ -40284,7 +40287,7 @@
         <v>108</v>
       </c>
       <c r="CF140" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="141" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -40292,7 +40295,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C141" s="15">
         <v>1</v>
@@ -40517,7 +40520,7 @@
         <v>95</v>
       </c>
       <c r="BY141" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="BZ141" s="14" t="s">
         <v>129</v>
@@ -40538,7 +40541,7 @@
         <v>108</v>
       </c>
       <c r="CF141" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="142" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -40546,7 +40549,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C142" s="15">
         <v>1</v>
@@ -40792,7 +40795,7 @@
         <v>94</v>
       </c>
       <c r="CF142" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -40800,7 +40803,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C143" s="15">
         <v>2</v>
@@ -41046,7 +41049,7 @@
         <v>108</v>
       </c>
       <c r="CF143" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -41054,7 +41057,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C144" s="15">
         <v>2</v>
@@ -41279,7 +41282,7 @@
         <v>95</v>
       </c>
       <c r="BY144" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="BZ144" s="14" t="s">
         <v>129</v>
@@ -41300,7 +41303,7 @@
         <v>108</v>
       </c>
       <c r="CF144" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="145" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -41308,7 +41311,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C145" s="15">
         <v>2</v>
@@ -41533,7 +41536,7 @@
         <v>95</v>
       </c>
       <c r="BY145" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="BZ145" s="14" t="s">
         <v>129</v>
@@ -41554,7 +41557,7 @@
         <v>108</v>
       </c>
       <c r="CF145" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="146" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -41562,7 +41565,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C146" s="15">
         <v>1</v>
@@ -41808,7 +41811,7 @@
         <v>108</v>
       </c>
       <c r="CF146" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="147" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -41816,7 +41819,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C147" s="15">
         <v>2</v>
@@ -41942,7 +41945,7 @@
         <v>94</v>
       </c>
       <c r="AR147" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AS147" s="14" t="s">
         <v>95</v>
@@ -42062,7 +42065,7 @@
         <v>108</v>
       </c>
       <c r="CF147" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="148" spans="1:84" ht="128" x14ac:dyDescent="0.2">
@@ -42070,7 +42073,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C148" s="15">
         <v>2</v>
@@ -42205,7 +42208,7 @@
         <v>92</v>
       </c>
       <c r="AU148" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AV148" s="14" t="s">
         <v>95</v>
@@ -42289,13 +42292,13 @@
         <v>94</v>
       </c>
       <c r="BW148" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="BX148" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY148" s="14" t="s">
         <v>733</v>
-      </c>
-      <c r="BX148" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY148" s="14" t="s">
-        <v>734</v>
       </c>
       <c r="BZ148" s="14" t="s">
         <v>104</v>
@@ -42310,13 +42313,13 @@
         <v>106</v>
       </c>
       <c r="CD148" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="CE148" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF148" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="149" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -42324,7 +42327,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C149" s="15">
         <v>1</v>
@@ -42333,13 +42336,13 @@
         <v>94</v>
       </c>
       <c r="E149" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G149" s="19" t="s">
         <v>737</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>738</v>
       </c>
       <c r="H149" s="14" t="s">
         <v>95</v>
@@ -42459,97 +42462,97 @@
         <v>92</v>
       </c>
       <c r="AU149" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="AV149" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW149" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX149" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA149" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN149" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO149" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU149" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV149" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW149" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="AV149" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW149" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX149" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA149" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN149" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO149" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU149" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV149" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW149" s="14" t="s">
+      <c r="BX149" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY149" s="39" t="s">
         <v>740</v>
-      </c>
-      <c r="BX149" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY149" s="14" t="s">
-        <v>741</v>
       </c>
       <c r="BZ149" s="14" t="s">
         <v>104</v>
@@ -42564,13 +42567,13 @@
         <v>106</v>
       </c>
       <c r="CD149" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="CE149" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF149" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -42578,7 +42581,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C150" s="15">
         <v>1</v>
@@ -42593,7 +42596,7 @@
         <v>94</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H150" s="14" t="s">
         <v>95</v>
@@ -42704,7 +42707,7 @@
         <v>94</v>
       </c>
       <c r="AR150" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AS150" s="14" t="s">
         <v>92</v>
@@ -42803,7 +42806,7 @@
         <v>95</v>
       </c>
       <c r="BY150" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="BZ150" s="14" t="s">
         <v>129</v>
@@ -42824,7 +42827,7 @@
         <v>108</v>
       </c>
       <c r="CF150" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="151" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -42832,7 +42835,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C151" s="15">
         <v>1</v>
@@ -42958,7 +42961,7 @@
         <v>94</v>
       </c>
       <c r="AR151" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AS151" s="14" t="s">
         <v>95</v>
@@ -43051,13 +43054,13 @@
         <v>94</v>
       </c>
       <c r="BW151" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="BX151" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="BX151" s="14" t="s">
+      <c r="BY151" s="14" t="s">
         <v>750</v>
-      </c>
-      <c r="BY151" s="14" t="s">
-        <v>751</v>
       </c>
       <c r="BZ151" s="14" t="s">
         <v>129</v>
@@ -43078,7 +43081,7 @@
         <v>94</v>
       </c>
       <c r="CF151" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="152" spans="1:84" ht="288" x14ac:dyDescent="0.2">
@@ -43086,7 +43089,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C152" s="15">
         <v>1</v>
@@ -43179,34 +43182,34 @@
         <v>92</v>
       </c>
       <c r="AG152" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL152" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO152" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP152" s="14" t="s">
         <v>753</v>
-      </c>
-      <c r="AH152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL152" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO152" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP152" s="14" t="s">
-        <v>754</v>
       </c>
       <c r="AQ152" s="14" t="s">
         <v>94</v>
@@ -43269,7 +43272,7 @@
         <v>92</v>
       </c>
       <c r="BK152" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="BL152" s="14" t="s">
         <v>101</v>
@@ -43305,13 +43308,13 @@
         <v>94</v>
       </c>
       <c r="BW152" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="BX152" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="BX152" s="14" t="s">
+      <c r="BY152" s="39" t="s">
         <v>757</v>
-      </c>
-      <c r="BY152" s="14" t="s">
-        <v>758</v>
       </c>
       <c r="BZ152" s="14" t="s">
         <v>104</v>
@@ -43326,13 +43329,13 @@
         <v>106</v>
       </c>
       <c r="CD152" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="CE152" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="CE152" s="14" t="s">
-        <v>760</v>
-      </c>
       <c r="CF152" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="153" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -43340,7 +43343,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C153" s="15">
         <v>2</v>
@@ -43466,7 +43469,7 @@
         <v>94</v>
       </c>
       <c r="AR153" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AS153" s="14" t="s">
         <v>95</v>
@@ -43564,8 +43567,8 @@
       <c r="BX153" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BY153" s="14" t="s">
-        <v>758</v>
+      <c r="BY153" s="39" t="s">
+        <v>757</v>
       </c>
       <c r="BZ153" s="14" t="s">
         <v>104</v>
@@ -43580,13 +43583,13 @@
         <v>106</v>
       </c>
       <c r="CD153" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="CE153" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CF153" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="154" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -43594,7 +43597,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C154" s="15">
         <v>1</v>
@@ -43819,7 +43822,7 @@
         <v>95</v>
       </c>
       <c r="BY154" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BZ154" s="14" t="s">
         <v>129</v>
@@ -43840,7 +43843,7 @@
         <v>165</v>
       </c>
       <c r="CF154" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="155" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -43848,7 +43851,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C155" s="15">
         <v>2</v>
@@ -44031,7 +44034,7 @@
         <v>92</v>
       </c>
       <c r="BK155" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="BL155" s="14" t="s">
         <v>101</v>
@@ -44073,7 +44076,7 @@
         <v>95</v>
       </c>
       <c r="BY155" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BZ155" s="14" t="s">
         <v>129</v>
@@ -44094,7 +44097,7 @@
         <v>165</v>
       </c>
       <c r="CF155" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="156" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -44102,7 +44105,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C156" s="15">
         <v>2</v>
@@ -44129,7 +44132,7 @@
         <v>92</v>
       </c>
       <c r="K156" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L156" s="15" t="s">
         <v>95</v>
@@ -44228,7 +44231,7 @@
         <v>94</v>
       </c>
       <c r="AR156" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AS156" s="14" t="s">
         <v>92</v>
@@ -44327,7 +44330,7 @@
         <v>95</v>
       </c>
       <c r="BY156" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BZ156" s="14" t="s">
         <v>129</v>
@@ -44348,7 +44351,7 @@
         <v>94</v>
       </c>
       <c r="CF156" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="157" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -44356,7 +44359,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C157" s="15">
         <v>1</v>
@@ -44449,7 +44452,7 @@
         <v>92</v>
       </c>
       <c r="AG157" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH157" s="14" t="s">
         <v>94</v>
@@ -44581,7 +44584,7 @@
         <v>95</v>
       </c>
       <c r="BY157" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BZ157" s="14" t="s">
         <v>129</v>
@@ -44602,7 +44605,7 @@
         <v>108</v>
       </c>
       <c r="CF157" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="158" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -44610,7 +44613,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>94</v>
@@ -44856,7 +44859,7 @@
         <v>94</v>
       </c>
       <c r="CF158" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="159" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -44864,7 +44867,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C159" s="15">
         <v>1</v>
@@ -45089,7 +45092,7 @@
         <v>94</v>
       </c>
       <c r="BY159" s="16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="BZ159" s="16" t="s">
         <v>129</v>
@@ -45110,7 +45113,7 @@
         <v>94</v>
       </c>
       <c r="CF159" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="160" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -45118,7 +45121,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>94</v>
@@ -45343,7 +45346,7 @@
         <v>94</v>
       </c>
       <c r="BY160" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BZ160" s="16" t="s">
         <v>129</v>
@@ -45364,7 +45367,7 @@
         <v>94</v>
       </c>
       <c r="CF160" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="161" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -45372,7 +45375,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>94</v>
@@ -45618,7 +45621,7 @@
         <v>94</v>
       </c>
       <c r="CF161" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="162" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -45626,7 +45629,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>94</v>
@@ -45851,7 +45854,7 @@
         <v>94</v>
       </c>
       <c r="BY162" s="16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="BZ162" s="16" t="s">
         <v>129</v>
@@ -45872,7 +45875,7 @@
         <v>94</v>
       </c>
       <c r="CF162" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="163" spans="1:84" ht="176" x14ac:dyDescent="0.2">
@@ -45880,7 +45883,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>94</v>
@@ -46105,13 +46108,13 @@
         <v>94</v>
       </c>
       <c r="BY163" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="BZ163" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA163" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="CB163" s="14">
         <v>9</v>
@@ -46120,13 +46123,13 @@
         <v>688</v>
       </c>
       <c r="CD163" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="CE163" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF163" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="164" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -46134,7 +46137,7 @@
         <v>2</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>94</v>
@@ -46359,13 +46362,13 @@
         <v>94</v>
       </c>
       <c r="BY164" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BZ164" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA164" s="33" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="CB164" s="14">
         <v>2</v>
@@ -46374,13 +46377,13 @@
         <v>118</v>
       </c>
       <c r="CD164" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="CE164" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF164" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="165" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -46388,7 +46391,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>94</v>
@@ -46613,7 +46616,7 @@
         <v>94</v>
       </c>
       <c r="BY165" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="BZ165" s="16" t="s">
         <v>104</v>
@@ -46628,13 +46631,13 @@
         <v>106</v>
       </c>
       <c r="CD165" s="16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="CE165" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF165" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="166" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -46642,7 +46645,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>94</v>
@@ -46867,7 +46870,7 @@
         <v>94</v>
       </c>
       <c r="BY166" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="BZ166" s="16" t="s">
         <v>104</v>
@@ -46882,13 +46885,13 @@
         <v>118</v>
       </c>
       <c r="CD166" s="16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="CE166" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF166" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="167" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -46896,7 +46899,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>94</v>
@@ -47121,7 +47124,7 @@
         <v>94</v>
       </c>
       <c r="BY167" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="BZ167" s="16" t="s">
         <v>104</v>
@@ -47136,13 +47139,13 @@
         <v>106</v>
       </c>
       <c r="CD167" s="16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="CE167" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF167" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="168" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -47150,7 +47153,7 @@
         <v>2</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>94</v>
@@ -47374,14 +47377,14 @@
       <c r="BX168" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BY168" s="14" t="s">
-        <v>800</v>
+      <c r="BY168" s="39" t="s">
+        <v>799</v>
       </c>
       <c r="BZ168" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA168" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="CB168" s="14">
         <v>8</v>
@@ -47390,13 +47393,13 @@
         <v>106</v>
       </c>
       <c r="CD168" s="16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="CE168" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF168" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="169" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -47404,7 +47407,7 @@
         <v>2</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>94</v>
@@ -47650,7 +47653,7 @@
         <v>94</v>
       </c>
       <c r="CF169" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="170" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -47658,7 +47661,7 @@
         <v>2</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>94</v>
@@ -47882,14 +47885,14 @@
       <c r="BX170" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BY170" s="14" t="s">
-        <v>804</v>
+      <c r="BY170" s="39" t="s">
+        <v>803</v>
       </c>
       <c r="BZ170" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA170" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="CB170" s="14">
         <v>0</v>
@@ -47898,13 +47901,13 @@
         <v>106</v>
       </c>
       <c r="CD170" s="16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="CE170" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF170" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="171" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -47912,7 +47915,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>94</v>
@@ -48137,13 +48140,13 @@
         <v>94</v>
       </c>
       <c r="BY171" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="BZ171" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA171" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="CB171" s="14">
         <v>0</v>
@@ -48152,13 +48155,13 @@
         <v>106</v>
       </c>
       <c r="CD171" s="16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="CE171" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF171" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="172" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -48166,7 +48169,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>94</v>
@@ -48391,13 +48394,13 @@
         <v>94</v>
       </c>
       <c r="BY172" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="BZ172" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA172" s="16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="CB172" s="14">
         <v>0</v>
@@ -48406,13 +48409,13 @@
         <v>106</v>
       </c>
       <c r="CD172" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="CE172" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF172" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="173" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -48420,7 +48423,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>94</v>
@@ -48644,8 +48647,8 @@
       <c r="BX173" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BY173" s="14" t="s">
-        <v>815</v>
+      <c r="BY173" s="39" t="s">
+        <v>814</v>
       </c>
       <c r="BZ173" s="16" t="s">
         <v>104</v>
@@ -48660,13 +48663,13 @@
         <v>106</v>
       </c>
       <c r="CD173" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="CE173" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF173" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="174" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -48674,7 +48677,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>94</v>
@@ -48899,7 +48902,7 @@
         <v>94</v>
       </c>
       <c r="BY174" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="BZ174" s="16" t="s">
         <v>129</v>
@@ -48920,7 +48923,7 @@
         <v>108</v>
       </c>
       <c r="CF174" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="175" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -48928,7 +48931,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C175" s="15">
         <v>2</v>
@@ -49153,7 +49156,7 @@
         <v>94</v>
       </c>
       <c r="BY175" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BZ175" s="16" t="s">
         <v>129</v>
@@ -49174,7 +49177,7 @@
         <v>94</v>
       </c>
       <c r="CF175" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="176" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -49182,7 +49185,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C176" s="15">
         <v>1</v>
@@ -49407,7 +49410,7 @@
         <v>94</v>
       </c>
       <c r="BY176" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BZ176" s="16" t="s">
         <v>129</v>
@@ -49428,7 +49431,7 @@
         <v>94</v>
       </c>
       <c r="CF176" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="177" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -49436,7 +49439,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C177" s="15">
         <v>1</v>
@@ -49661,7 +49664,7 @@
         <v>94</v>
       </c>
       <c r="BY177" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="BZ177" s="16" t="s">
         <v>129</v>
@@ -49682,7 +49685,7 @@
         <v>94</v>
       </c>
       <c r="CF177" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="178" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -49690,7 +49693,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>94</v>
@@ -49915,7 +49918,7 @@
         <v>94</v>
       </c>
       <c r="BY178" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="BZ178" s="16" t="s">
         <v>129</v>
@@ -49936,7 +49939,7 @@
         <v>94</v>
       </c>
       <c r="CF178" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="179" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -49944,7 +49947,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C179" s="15">
         <v>1</v>
@@ -50169,7 +50172,7 @@
         <v>94</v>
       </c>
       <c r="BY179" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BZ179" s="16" t="s">
         <v>129</v>
@@ -50190,7 +50193,7 @@
         <v>94</v>
       </c>
       <c r="CF179" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="180" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -50198,7 +50201,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>94</v>
@@ -50423,7 +50426,7 @@
         <v>94</v>
       </c>
       <c r="BY180" s="16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BZ180" s="16" t="s">
         <v>129</v>
@@ -50444,7 +50447,7 @@
         <v>94</v>
       </c>
       <c r="CF180" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="181" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -50452,7 +50455,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C181" s="15">
         <v>1</v>
@@ -50467,7 +50470,7 @@
         <v>94</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H181" s="14" t="s">
         <v>95</v>
@@ -50677,7 +50680,7 @@
         <v>94</v>
       </c>
       <c r="BY181" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="BZ181" s="14" t="s">
         <v>129</v>
@@ -50698,7 +50701,7 @@
         <v>108</v>
       </c>
       <c r="CF181" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="182" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -50706,7 +50709,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C182" s="15">
         <v>1</v>
@@ -50931,7 +50934,7 @@
         <v>94</v>
       </c>
       <c r="BY182" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BZ182" s="14" t="s">
         <v>104</v>
@@ -50946,13 +50949,13 @@
         <v>257</v>
       </c>
       <c r="CD182" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="CE182" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF182" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="183" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -50960,7 +50963,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C183" s="15">
         <v>2</v>
@@ -51074,19 +51077,19 @@
         <v>92</v>
       </c>
       <c r="AN183" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="AO183" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP183" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ183" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR183" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="AO183" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP183" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ183" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR183" s="19" t="s">
-        <v>837</v>
       </c>
       <c r="AS183" s="14" t="s">
         <v>92</v>
@@ -51185,7 +51188,7 @@
         <v>95</v>
       </c>
       <c r="BY183" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BZ183" s="14" t="s">
         <v>129</v>
@@ -51206,7 +51209,7 @@
         <v>94</v>
       </c>
       <c r="CF183" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="184" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -51214,7 +51217,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C184" s="15">
         <v>1</v>
@@ -51340,106 +51343,106 @@
         <v>94</v>
       </c>
       <c r="AR184" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="AS184" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU184" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW184" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX184" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY184" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ184" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW184" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX184" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY184" s="14" t="s">
         <v>840</v>
-      </c>
-      <c r="AS184" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU184" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW184" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX184" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY184" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ184" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW184" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX184" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY184" s="14" t="s">
-        <v>841</v>
       </c>
       <c r="BZ184" s="14" t="s">
         <v>129</v>
@@ -51460,7 +51463,7 @@
         <v>94</v>
       </c>
       <c r="CF184" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="185" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -51468,7 +51471,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C185" s="15">
         <v>2</v>
@@ -51594,106 +51597,106 @@
         <v>94</v>
       </c>
       <c r="AR185" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="AS185" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU185" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW185" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX185" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY185" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ185" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW185" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX185" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY185" s="14" t="s">
         <v>840</v>
-      </c>
-      <c r="AS185" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU185" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW185" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX185" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY185" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ185" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW185" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX185" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY185" s="14" t="s">
-        <v>841</v>
       </c>
       <c r="BZ185" s="14" t="s">
         <v>129</v>
@@ -51714,7 +51717,7 @@
         <v>94</v>
       </c>
       <c r="CF185" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="186" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -51722,7 +51725,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C186" s="15">
         <v>2</v>
@@ -51836,7 +51839,7 @@
         <v>92</v>
       </c>
       <c r="AN186" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AO186" s="14" t="s">
         <v>94</v>
@@ -51848,7 +51851,7 @@
         <v>94</v>
       </c>
       <c r="AR186" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS186" s="14" t="s">
         <v>95</v>
@@ -51947,7 +51950,7 @@
         <v>95</v>
       </c>
       <c r="BY186" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BZ186" s="14" t="s">
         <v>129</v>
@@ -51968,7 +51971,7 @@
         <v>94</v>
       </c>
       <c r="CF186" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="187" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -51976,7 +51979,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C187" s="15">
         <v>2</v>
@@ -52069,7 +52072,7 @@
         <v>92</v>
       </c>
       <c r="AG187" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AH187" s="14" t="s">
         <v>92</v>
@@ -52102,7 +52105,7 @@
         <v>94</v>
       </c>
       <c r="AR187" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS187" s="14" t="s">
         <v>95</v>
@@ -52201,7 +52204,7 @@
         <v>95</v>
       </c>
       <c r="BY187" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BZ187" s="14" t="s">
         <v>129</v>
@@ -52222,7 +52225,7 @@
         <v>94</v>
       </c>
       <c r="CF187" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="188" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -52230,7 +52233,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C188" s="15">
         <v>2</v>
@@ -52356,7 +52359,7 @@
         <v>94</v>
       </c>
       <c r="AR188" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS188" s="14" t="s">
         <v>92</v>
@@ -52476,7 +52479,7 @@
         <v>94</v>
       </c>
       <c r="CF188" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="189" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -52484,7 +52487,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C189" s="15">
         <v>1</v>
@@ -52598,7 +52601,7 @@
         <v>92</v>
       </c>
       <c r="AN189" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AO189" s="14" t="s">
         <v>94</v>
@@ -52610,7 +52613,7 @@
         <v>94</v>
       </c>
       <c r="AR189" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS189" s="14" t="s">
         <v>92</v>
@@ -52730,7 +52733,7 @@
         <v>94</v>
       </c>
       <c r="CF189" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="190" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -52738,7 +52741,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C190" s="15">
         <v>2</v>
@@ -52831,7 +52834,7 @@
         <v>92</v>
       </c>
       <c r="AG190" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AH190" s="14" t="s">
         <v>95</v>
@@ -52864,7 +52867,7 @@
         <v>94</v>
       </c>
       <c r="AR190" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS190" s="14" t="s">
         <v>95</v>
@@ -52921,7 +52924,7 @@
         <v>92</v>
       </c>
       <c r="BK190" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="BL190" s="14" t="s">
         <v>94</v>
@@ -52984,7 +52987,7 @@
         <v>94</v>
       </c>
       <c r="CF190" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="191" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -52992,7 +52995,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C191" s="15">
         <v>2</v>
@@ -53118,7 +53121,7 @@
         <v>94</v>
       </c>
       <c r="AR191" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS191" s="14" t="s">
         <v>95</v>
@@ -53175,7 +53178,7 @@
         <v>95</v>
       </c>
       <c r="BK191" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="BL191" s="14" t="s">
         <v>94</v>
@@ -53238,7 +53241,7 @@
         <v>94</v>
       </c>
       <c r="CF191" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="192" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -53246,7 +53249,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C192" s="15">
         <v>1</v>
@@ -53372,7 +53375,7 @@
         <v>94</v>
       </c>
       <c r="AR192" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS192" s="14" t="s">
         <v>92</v>
@@ -53492,7 +53495,7 @@
         <v>94</v>
       </c>
       <c r="CF192" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="193" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -53500,7 +53503,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C193" s="15">
         <v>1</v>
@@ -53626,7 +53629,7 @@
         <v>94</v>
       </c>
       <c r="AR193" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS193" s="14" t="s">
         <v>95</v>
@@ -53683,7 +53686,7 @@
         <v>92</v>
       </c>
       <c r="BK193" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="BL193" s="14" t="s">
         <v>94</v>
@@ -53746,7 +53749,7 @@
         <v>94</v>
       </c>
       <c r="CF193" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="194" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -53754,7 +53757,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C194" s="15">
         <v>2</v>
@@ -53880,7 +53883,7 @@
         <v>94</v>
       </c>
       <c r="AR194" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS194" s="14" t="s">
         <v>95</v>
@@ -53937,49 +53940,49 @@
         <v>95</v>
       </c>
       <c r="BK194" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="BL194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW194" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX194" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY194" s="14" t="s">
         <v>860</v>
-      </c>
-      <c r="BL194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW194" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX194" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY194" s="14" t="s">
-        <v>861</v>
       </c>
       <c r="BZ194" s="14" t="s">
         <v>129</v>
@@ -54000,7 +54003,7 @@
         <v>94</v>
       </c>
       <c r="CF194" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="195" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -54008,7 +54011,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C195" s="15">
         <v>1</v>
@@ -54134,7 +54137,7 @@
         <v>94</v>
       </c>
       <c r="AR195" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS195" s="14" t="s">
         <v>95</v>
@@ -54233,7 +54236,7 @@
         <v>95</v>
       </c>
       <c r="BY195" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BZ195" s="14" t="s">
         <v>129</v>
@@ -54254,7 +54257,7 @@
         <v>94</v>
       </c>
       <c r="CF195" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="196" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -54262,7 +54265,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C196" s="15">
         <v>2</v>
@@ -54388,7 +54391,7 @@
         <v>94</v>
       </c>
       <c r="AR196" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS196" s="14" t="s">
         <v>92</v>
@@ -54487,7 +54490,7 @@
         <v>95</v>
       </c>
       <c r="BY196" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BZ196" s="14" t="s">
         <v>129</v>
@@ -54508,7 +54511,7 @@
         <v>94</v>
       </c>
       <c r="CF196" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="197" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -54516,7 +54519,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C197" s="15">
         <v>1</v>
@@ -54642,7 +54645,7 @@
         <v>94</v>
       </c>
       <c r="AR197" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS197" s="14" t="s">
         <v>95</v>
@@ -54762,7 +54765,7 @@
         <v>94</v>
       </c>
       <c r="CF197" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="198" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -54770,7 +54773,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C198" s="15">
         <v>2</v>
@@ -54896,7 +54899,7 @@
         <v>94</v>
       </c>
       <c r="AR198" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS198" s="14" t="s">
         <v>95</v>
@@ -55016,7 +55019,7 @@
         <v>94</v>
       </c>
       <c r="CF198" s="13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="199" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -55024,7 +55027,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C199" s="15">
         <v>2</v>
@@ -55150,7 +55153,7 @@
         <v>94</v>
       </c>
       <c r="AR199" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS199" s="14" t="s">
         <v>95</v>
@@ -55249,7 +55252,7 @@
         <v>95</v>
       </c>
       <c r="BY199" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="BZ199" s="14" t="s">
         <v>129</v>
@@ -55270,7 +55273,7 @@
         <v>94</v>
       </c>
       <c r="CF199" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="200" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -55278,7 +55281,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C200" s="15">
         <v>1</v>
@@ -55404,7 +55407,7 @@
         <v>94</v>
       </c>
       <c r="AR200" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS200" s="14" t="s">
         <v>95</v>
@@ -55461,49 +55464,49 @@
         <v>95</v>
       </c>
       <c r="BK200" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="BL200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW200" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX200" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY200" s="14" t="s">
         <v>871</v>
-      </c>
-      <c r="BL200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW200" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX200" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY200" s="14" t="s">
-        <v>872</v>
       </c>
       <c r="BZ200" s="14" t="s">
         <v>129</v>
@@ -55524,7 +55527,7 @@
         <v>94</v>
       </c>
       <c r="CF200" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="201" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -55532,7 +55535,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C201" s="15">
         <v>2</v>
@@ -55625,139 +55628,139 @@
         <v>92</v>
       </c>
       <c r="AG201" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="AH201" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ201" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM201" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN201" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="AH201" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ201" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM201" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN201" s="14" t="s">
+      <c r="AO201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR201" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="AS201" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU201" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW201" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX201" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY201" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ201" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW201" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX201" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY201" s="14" t="s">
         <v>875</v>
-      </c>
-      <c r="AO201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR201" s="19" t="s">
-        <v>840</v>
-      </c>
-      <c r="AS201" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU201" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW201" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX201" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY201" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ201" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW201" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX201" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY201" s="14" t="s">
-        <v>876</v>
       </c>
       <c r="BZ201" s="14" t="s">
         <v>129</v>
@@ -55778,7 +55781,7 @@
         <v>94</v>
       </c>
       <c r="CF201" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="202" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -55786,7 +55789,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C202" s="15">
         <v>1</v>
@@ -55912,7 +55915,7 @@
         <v>94</v>
       </c>
       <c r="AR202" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS202" s="14" t="s">
         <v>95</v>
@@ -56011,7 +56014,7 @@
         <v>95</v>
       </c>
       <c r="BY202" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="BZ202" s="14" t="s">
         <v>129</v>
@@ -56032,7 +56035,7 @@
         <v>94</v>
       </c>
       <c r="CF202" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="203" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -56040,7 +56043,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C203" s="15">
         <v>2</v>
@@ -56166,7 +56169,7 @@
         <v>94</v>
       </c>
       <c r="AR203" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS203" s="14" t="s">
         <v>95</v>
@@ -56265,7 +56268,7 @@
         <v>95</v>
       </c>
       <c r="BY203" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="BZ203" s="14" t="s">
         <v>129</v>
@@ -56286,7 +56289,7 @@
         <v>94</v>
       </c>
       <c r="CF203" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="204" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -56294,7 +56297,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C204" s="15">
         <v>1</v>
@@ -56420,7 +56423,7 @@
         <v>94</v>
       </c>
       <c r="AR204" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS204" s="14" t="s">
         <v>95</v>
@@ -56540,7 +56543,7 @@
         <v>94</v>
       </c>
       <c r="CF204" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="205" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -56548,7 +56551,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C205" s="15">
         <v>1</v>
@@ -56674,7 +56677,7 @@
         <v>92</v>
       </c>
       <c r="AR205" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS205" s="14" t="s">
         <v>95</v>
@@ -56731,49 +56734,49 @@
         <v>92</v>
       </c>
       <c r="BK205" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="BL205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW205" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX205" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY205" s="14" t="s">
         <v>883</v>
-      </c>
-      <c r="BL205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW205" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX205" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY205" s="14" t="s">
-        <v>884</v>
       </c>
       <c r="BZ205" s="14" t="s">
         <v>129</v>
@@ -56794,7 +56797,7 @@
         <v>94</v>
       </c>
       <c r="CF205" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="206" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -56802,7 +56805,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C206" s="15">
         <v>1</v>
@@ -56928,7 +56931,7 @@
         <v>94</v>
       </c>
       <c r="AR206" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS206" s="14" t="s">
         <v>95</v>
@@ -56985,7 +56988,7 @@
         <v>92</v>
       </c>
       <c r="BK206" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="BL206" s="14" t="s">
         <v>94</v>
@@ -57027,7 +57030,7 @@
         <v>95</v>
       </c>
       <c r="BY206" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="BZ206" s="14" t="s">
         <v>129</v>
@@ -57048,7 +57051,7 @@
         <v>94</v>
       </c>
       <c r="CF206" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="207" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -57056,7 +57059,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C207" s="15">
         <v>1</v>
@@ -57182,7 +57185,7 @@
         <v>94</v>
       </c>
       <c r="AR207" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS207" s="14" t="s">
         <v>95</v>
@@ -57281,7 +57284,7 @@
         <v>95</v>
       </c>
       <c r="BY207" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="BZ207" s="14" t="s">
         <v>129</v>
@@ -57302,7 +57305,7 @@
         <v>94</v>
       </c>
       <c r="CF207" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="208" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -57310,7 +57313,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C208" s="15">
         <v>1</v>
@@ -57436,7 +57439,7 @@
         <v>94</v>
       </c>
       <c r="AR208" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS208" s="14" t="s">
         <v>95</v>
@@ -57535,7 +57538,7 @@
         <v>95</v>
       </c>
       <c r="BY208" s="14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="BZ208" s="14" t="s">
         <v>129</v>
@@ -57556,7 +57559,7 @@
         <v>94</v>
       </c>
       <c r="CF208" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="209" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -57564,7 +57567,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C209" s="15">
         <v>1</v>
@@ -57639,26 +57642,26 @@
         <v>94</v>
       </c>
       <c r="AA209" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AB209" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC209" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD209" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE209" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF209" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG209" s="14" t="s">
         <v>892</v>
       </c>
-      <c r="AB209" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC209" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD209" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE209" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF209" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG209" s="14" t="s">
-        <v>893</v>
-      </c>
       <c r="AH209" s="14" t="s">
         <v>95</v>
       </c>
@@ -57690,7 +57693,7 @@
         <v>94</v>
       </c>
       <c r="AR209" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS209" s="14" t="s">
         <v>95</v>
@@ -57810,7 +57813,7 @@
         <v>94</v>
       </c>
       <c r="CF209" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="210" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -57818,7 +57821,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C210" s="15">
         <v>2</v>
@@ -57944,7 +57947,7 @@
         <v>94</v>
       </c>
       <c r="AR210" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS210" s="14" t="s">
         <v>92</v>
@@ -58037,7 +58040,7 @@
         <v>94</v>
       </c>
       <c r="BW210" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="BX210" s="14" t="s">
         <v>95</v>
@@ -58064,7 +58067,7 @@
         <v>94</v>
       </c>
       <c r="CF210" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="211" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -58072,7 +58075,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C211" s="15">
         <v>2</v>
@@ -58198,7 +58201,7 @@
         <v>94</v>
       </c>
       <c r="AR211" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS211" s="14" t="s">
         <v>92</v>
@@ -58318,7 +58321,7 @@
         <v>94</v>
       </c>
       <c r="CF211" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="212" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -58326,7 +58329,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C212" s="15">
         <v>2</v>
@@ -58452,7 +58455,7 @@
         <v>94</v>
       </c>
       <c r="AR212" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS212" s="14" t="s">
         <v>95</v>
@@ -58572,7 +58575,7 @@
         <v>94</v>
       </c>
       <c r="CF212" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="213" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -58580,7 +58583,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C213" s="15">
         <v>1</v>
@@ -58706,7 +58709,7 @@
         <v>94</v>
       </c>
       <c r="AR213" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS213" s="14" t="s">
         <v>95</v>
@@ -58826,7 +58829,7 @@
         <v>94</v>
       </c>
       <c r="CF213" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="214" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -58834,7 +58837,7 @@
         <v>2</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C214" s="15">
         <v>1</v>
@@ -58960,7 +58963,7 @@
         <v>92</v>
       </c>
       <c r="AR214" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS214" s="14" t="s">
         <v>95</v>
@@ -59080,7 +59083,7 @@
         <v>94</v>
       </c>
       <c r="CF214" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="215" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -59088,7 +59091,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C215" s="15">
         <v>2</v>
@@ -59214,7 +59217,7 @@
         <v>95</v>
       </c>
       <c r="AR215" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS215" s="14" t="s">
         <v>92</v>
@@ -59271,7 +59274,7 @@
         <v>95</v>
       </c>
       <c r="BK215" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="BL215" s="14" t="s">
         <v>94</v>
@@ -59334,7 +59337,7 @@
         <v>94</v>
       </c>
       <c r="CF215" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="216" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -59342,7 +59345,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C216" s="15">
         <v>1</v>
@@ -59468,7 +59471,7 @@
         <v>94</v>
       </c>
       <c r="AR216" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AS216" s="14" t="s">
         <v>92</v>
@@ -59567,13 +59570,13 @@
         <v>94</v>
       </c>
       <c r="BY216" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="BZ216" s="14" t="s">
         <v>129</v>
       </c>
       <c r="CA216" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="CB216" s="14">
         <v>1</v>
@@ -59588,7 +59591,7 @@
         <v>94</v>
       </c>
       <c r="CF216" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="217" spans="1:84" ht="144" x14ac:dyDescent="0.2">
@@ -59596,7 +59599,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C217" s="15">
         <v>1</v>
@@ -59605,25 +59608,25 @@
         <v>94</v>
       </c>
       <c r="E217" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G217" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="F217" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G217" s="19" t="s">
+      <c r="H217" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J217" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>908</v>
-      </c>
-      <c r="H217" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J217" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K217" s="15" t="s">
-        <v>909</v>
       </c>
       <c r="L217" s="15" t="s">
         <v>95</v>
@@ -59722,7 +59725,7 @@
         <v>94</v>
       </c>
       <c r="AR217" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AS217" s="14" t="s">
         <v>95</v>
@@ -59842,7 +59845,7 @@
         <v>108</v>
       </c>
       <c r="CF217" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="218" spans="1:84" ht="409.6" x14ac:dyDescent="0.2">
@@ -59850,7 +59853,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C218" s="15">
         <v>1</v>
@@ -59859,25 +59862,25 @@
         <v>94</v>
       </c>
       <c r="E218" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G218" s="19" t="s">
         <v>912</v>
       </c>
-      <c r="F218" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G218" s="19" t="s">
+      <c r="H218" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J218" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K218" s="15" t="s">
         <v>913</v>
-      </c>
-      <c r="H218" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J218" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K218" s="15" t="s">
-        <v>914</v>
       </c>
       <c r="L218" s="15" t="s">
         <v>95</v>
@@ -59976,7 +59979,7 @@
         <v>94</v>
       </c>
       <c r="AR218" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AS218" s="14" t="s">
         <v>95</v>
@@ -59985,7 +59988,7 @@
         <v>95</v>
       </c>
       <c r="AU218" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AV218" s="14" t="s">
         <v>95</v>
@@ -60033,7 +60036,7 @@
         <v>92</v>
       </c>
       <c r="BK218" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="BL218" s="14" t="s">
         <v>101</v>
@@ -60069,34 +60072,34 @@
         <v>94</v>
       </c>
       <c r="BW218" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="BX218" s="14" t="s">
         <v>146</v>
       </c>
       <c r="BY218" s="14" t="s">
-        <v>917</v>
+        <v>1280</v>
       </c>
       <c r="BZ218" s="14" t="s">
         <v>104</v>
       </c>
       <c r="CA218" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="CB218" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="CC218" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="CD218" s="14" t="s">
         <v>918</v>
-      </c>
-      <c r="CB218" s="34" t="s">
-        <v>918</v>
-      </c>
-      <c r="CC218" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="CD218" s="14" t="s">
-        <v>920</v>
       </c>
       <c r="CE218" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF218" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="219" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -60104,7 +60107,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C219" s="15">
         <v>2</v>
@@ -60350,7 +60353,7 @@
         <v>108</v>
       </c>
       <c r="CF219" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="220" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -60358,7 +60361,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C220" s="15">
         <v>1</v>
@@ -60604,7 +60607,7 @@
         <v>108</v>
       </c>
       <c r="CF220" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="221" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -60612,7 +60615,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C221" s="15">
         <v>1</v>
@@ -60639,7 +60642,7 @@
         <v>92</v>
       </c>
       <c r="K221" s="15" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L221" s="15" t="s">
         <v>95</v>
@@ -60837,7 +60840,7 @@
         <v>95</v>
       </c>
       <c r="BY221" s="14" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BZ221" s="14" t="s">
         <v>129</v>
@@ -60858,7 +60861,7 @@
         <v>108</v>
       </c>
       <c r="CF221" s="13" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="222" spans="1:84" ht="96" x14ac:dyDescent="0.2">
@@ -60866,7 +60869,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C222" s="15">
         <v>1</v>
@@ -60881,7 +60884,7 @@
         <v>95</v>
       </c>
       <c r="G222" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H222" s="14" t="s">
         <v>95</v>
@@ -61040,7 +61043,7 @@
         <v>94</v>
       </c>
       <c r="BH222" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BI222" s="14" t="s">
         <v>94</v>
@@ -61049,7 +61052,7 @@
         <v>92</v>
       </c>
       <c r="BK222" s="14" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="BL222" s="14" t="s">
         <v>156</v>
@@ -61085,7 +61088,7 @@
         <v>94</v>
       </c>
       <c r="BW222" s="14" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="BX222" s="14" t="s">
         <v>95</v>
@@ -61112,7 +61115,7 @@
         <v>94</v>
       </c>
       <c r="CF222" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="223" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -61120,7 +61123,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C223" s="15">
         <v>2</v>
@@ -61240,7 +61243,7 @@
         <v>94</v>
       </c>
       <c r="AP223" s="14" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AQ223" s="14" t="s">
         <v>94</v>
@@ -61303,7 +61306,7 @@
         <v>92</v>
       </c>
       <c r="BK223" s="14" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="BL223" s="14" t="s">
         <v>94</v>
@@ -61345,7 +61348,7 @@
         <v>95</v>
       </c>
       <c r="BY223" s="14" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="BZ223" s="14" t="s">
         <v>129</v>
@@ -61366,7 +61369,7 @@
         <v>108</v>
       </c>
       <c r="CF223" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="224" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -61374,7 +61377,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C224" s="15">
         <v>2</v>
@@ -61548,7 +61551,7 @@
         <v>94</v>
       </c>
       <c r="BH224" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BI224" s="14" t="s">
         <v>94</v>
@@ -61557,7 +61560,7 @@
         <v>92</v>
       </c>
       <c r="BK224" s="14" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="BL224" s="14" t="s">
         <v>94</v>
@@ -61593,13 +61596,13 @@
         <v>94</v>
       </c>
       <c r="BW224" s="14" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="BX224" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY224" s="14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BZ224" s="14" t="s">
         <v>129</v>
@@ -61620,7 +61623,7 @@
         <v>108</v>
       </c>
       <c r="CF224" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="225" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -61628,7 +61631,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C225" s="15">
         <v>2</v>
@@ -61802,7 +61805,7 @@
         <v>94</v>
       </c>
       <c r="BH225" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BI225" s="14" t="s">
         <v>94</v>
@@ -61811,7 +61814,7 @@
         <v>94</v>
       </c>
       <c r="BK225" s="14" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="BL225" s="14" t="s">
         <v>101</v>
@@ -61847,7 +61850,7 @@
         <v>94</v>
       </c>
       <c r="BW225" s="14" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="BX225" s="14" t="s">
         <v>95</v>
@@ -61874,7 +61877,7 @@
         <v>108</v>
       </c>
       <c r="CF225" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="226" spans="1:84" ht="128" x14ac:dyDescent="0.2">
@@ -61882,7 +61885,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C226" s="15">
         <v>1</v>
@@ -61909,7 +61912,7 @@
         <v>92</v>
       </c>
       <c r="K226" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L226" s="15" t="s">
         <v>95</v>
@@ -61996,13 +61999,13 @@
         <v>92</v>
       </c>
       <c r="AN226" s="14" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AO226" s="14" t="s">
         <v>94</v>
       </c>
       <c r="AP226" s="14" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AQ226" s="14" t="s">
         <v>92</v>
@@ -62056,7 +62059,7 @@
         <v>94</v>
       </c>
       <c r="BH226" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BI226" s="14" t="s">
         <v>94</v>
@@ -62065,7 +62068,7 @@
         <v>94</v>
       </c>
       <c r="BK226" s="14" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="BL226" s="14" t="s">
         <v>156</v>
@@ -62128,7 +62131,7 @@
         <v>108</v>
       </c>
       <c r="CF226" s="13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="227" spans="1:84" ht="176" x14ac:dyDescent="0.2">
@@ -62136,7 +62139,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C227" s="15">
         <v>2</v>
@@ -62163,7 +62166,7 @@
         <v>92</v>
       </c>
       <c r="K227" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L227" s="15" t="s">
         <v>95</v>
@@ -62271,7 +62274,7 @@
         <v>92</v>
       </c>
       <c r="AU227" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AV227" s="14" t="s">
         <v>95</v>
@@ -62310,7 +62313,7 @@
         <v>94</v>
       </c>
       <c r="BH227" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BI227" s="14" t="s">
         <v>94</v>
@@ -62355,13 +62358,13 @@
         <v>94</v>
       </c>
       <c r="BW227" s="14" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="BX227" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY227" s="14" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="BZ227" s="14" t="s">
         <v>129</v>
@@ -62382,7 +62385,7 @@
         <v>108</v>
       </c>
       <c r="CF227" s="13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="228" spans="1:84" ht="128" x14ac:dyDescent="0.2">
@@ -62390,7 +62393,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C228" s="15">
         <v>1</v>
@@ -62417,7 +62420,7 @@
         <v>92</v>
       </c>
       <c r="K228" s="15" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="L228" s="15" t="s">
         <v>92</v>
@@ -62483,7 +62486,7 @@
         <v>92</v>
       </c>
       <c r="AG228" s="14" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AH228" s="14" t="s">
         <v>95</v>
@@ -62504,7 +62507,7 @@
         <v>92</v>
       </c>
       <c r="AN228" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AO228" s="14" t="s">
         <v>94</v>
@@ -62525,7 +62528,7 @@
         <v>92</v>
       </c>
       <c r="AU228" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AV228" s="14" t="s">
         <v>95</v>
@@ -62564,7 +62567,7 @@
         <v>94</v>
       </c>
       <c r="BH228" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BI228" s="14" t="s">
         <v>94</v>
@@ -62573,7 +62576,7 @@
         <v>94</v>
       </c>
       <c r="BK228" s="14" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="BL228" s="14" t="s">
         <v>101</v>
@@ -62609,7 +62612,7 @@
         <v>94</v>
       </c>
       <c r="BW228" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="BX228" s="14" t="s">
         <v>95</v>
@@ -62636,7 +62639,7 @@
         <v>94</v>
       </c>
       <c r="CF228" s="13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="229" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -62644,7 +62647,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C229" s="15">
         <v>1</v>
@@ -62758,7 +62761,7 @@
         <v>92</v>
       </c>
       <c r="AN229" s="14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AO229" s="14" t="s">
         <v>94</v>
@@ -62779,7 +62782,7 @@
         <v>95</v>
       </c>
       <c r="AU229" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AV229" s="14" t="s">
         <v>95</v>
@@ -62818,7 +62821,7 @@
         <v>94</v>
       </c>
       <c r="BH229" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BI229" s="14" t="s">
         <v>94</v>
@@ -62827,7 +62830,7 @@
         <v>92</v>
       </c>
       <c r="BK229" s="14" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="BL229" s="14" t="s">
         <v>94</v>
@@ -62890,7 +62893,7 @@
         <v>94</v>
       </c>
       <c r="CF229" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="230" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -62898,7 +62901,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C230" s="15">
         <v>2</v>
@@ -63072,7 +63075,7 @@
         <v>94</v>
       </c>
       <c r="BH230" s="14" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="BI230" s="14" t="s">
         <v>94</v>
@@ -63117,13 +63120,13 @@
         <v>94</v>
       </c>
       <c r="BW230" s="14" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="BX230" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY230" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="BZ230" s="14" t="s">
         <v>129</v>
@@ -63144,7 +63147,7 @@
         <v>94</v>
       </c>
       <c r="CF230" s="13" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="231" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -63152,7 +63155,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C231" s="15">
         <v>2</v>
@@ -63266,7 +63269,7 @@
         <v>92</v>
       </c>
       <c r="AN231" s="14" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AO231" s="14" t="s">
         <v>92</v>
@@ -63326,7 +63329,7 @@
         <v>94</v>
       </c>
       <c r="BH231" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BI231" s="14" t="s">
         <v>94</v>
@@ -63371,13 +63374,13 @@
         <v>94</v>
       </c>
       <c r="BW231" s="14" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="BX231" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY231" s="14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="BZ231" s="14" t="s">
         <v>129</v>
@@ -63398,7 +63401,7 @@
         <v>165</v>
       </c>
       <c r="CF231" s="13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="232" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -63406,7 +63409,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C232" s="15">
         <v>2</v>
@@ -63580,7 +63583,7 @@
         <v>94</v>
       </c>
       <c r="BH232" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BI232" s="14" t="s">
         <v>94</v>
@@ -63589,7 +63592,7 @@
         <v>92</v>
       </c>
       <c r="BK232" s="14" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="BL232" s="14" t="s">
         <v>126</v>
@@ -63625,13 +63628,13 @@
         <v>94</v>
       </c>
       <c r="BW232" s="14" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="BX232" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY232" s="14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="BZ232" s="14" t="s">
         <v>129</v>
@@ -63652,7 +63655,7 @@
         <v>165</v>
       </c>
       <c r="CF232" s="13" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="233" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -63660,7 +63663,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C233" s="15">
         <v>2</v>
@@ -63753,7 +63756,7 @@
         <v>92</v>
       </c>
       <c r="AG233" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AH233" s="14" t="s">
         <v>95</v>
@@ -63795,7 +63798,7 @@
         <v>92</v>
       </c>
       <c r="AU233" s="19" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AV233" s="14" t="s">
         <v>95</v>
@@ -63834,7 +63837,7 @@
         <v>94</v>
       </c>
       <c r="BH233" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BI233" s="14" t="s">
         <v>94</v>
@@ -63843,7 +63846,7 @@
         <v>92</v>
       </c>
       <c r="BK233" s="14" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="BL233" s="14" t="s">
         <v>126</v>
@@ -63885,7 +63888,7 @@
         <v>95</v>
       </c>
       <c r="BY233" s="14" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="BZ233" s="14" t="s">
         <v>129</v>
@@ -63906,7 +63909,7 @@
         <v>94</v>
       </c>
       <c r="CF233" s="13" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="234" spans="1:84" ht="144" x14ac:dyDescent="0.2">
@@ -63914,7 +63917,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C234" s="15">
         <v>2</v>
@@ -63929,7 +63932,7 @@
         <v>94</v>
       </c>
       <c r="G234" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H234" s="14" t="s">
         <v>95</v>
@@ -63941,7 +63944,7 @@
         <v>92</v>
       </c>
       <c r="K234" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="L234" s="15" t="s">
         <v>95</v>
@@ -64028,7 +64031,7 @@
         <v>92</v>
       </c>
       <c r="AN234" s="14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AO234" s="14" t="s">
         <v>94</v>
@@ -64097,7 +64100,7 @@
         <v>94</v>
       </c>
       <c r="BK234" s="14" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="BL234" s="14" t="s">
         <v>101</v>
@@ -64133,7 +64136,7 @@
         <v>92</v>
       </c>
       <c r="BW234" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="BX234" s="14" t="s">
         <v>95</v>
@@ -64160,7 +64163,7 @@
         <v>94</v>
       </c>
       <c r="CF234" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="235" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -64168,7 +64171,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C235" s="15">
         <v>1</v>
@@ -64183,7 +64186,7 @@
         <v>95</v>
       </c>
       <c r="G235" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H235" s="14" t="s">
         <v>95</v>
@@ -64195,7 +64198,7 @@
         <v>92</v>
       </c>
       <c r="K235" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="L235" s="15" t="s">
         <v>95</v>
@@ -64282,13 +64285,13 @@
         <v>92</v>
       </c>
       <c r="AN235" s="14" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AO235" s="14" t="s">
         <v>94</v>
       </c>
       <c r="AP235" s="14" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AQ235" s="14" t="s">
         <v>94</v>
@@ -64351,7 +64354,7 @@
         <v>92</v>
       </c>
       <c r="BK235" s="14" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="BL235" s="14" t="s">
         <v>101</v>
@@ -64393,7 +64396,7 @@
         <v>95</v>
       </c>
       <c r="BY235" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="BZ235" s="14" t="s">
         <v>129</v>
@@ -64414,7 +64417,7 @@
         <v>108</v>
       </c>
       <c r="CF235" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="236" spans="1:84" ht="160" x14ac:dyDescent="0.2">
@@ -64422,7 +64425,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C236" s="15">
         <v>1</v>
@@ -64536,7 +64539,7 @@
         <v>92</v>
       </c>
       <c r="AN236" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AO236" s="14" t="s">
         <v>94</v>
@@ -64548,7 +64551,7 @@
         <v>92</v>
       </c>
       <c r="AR236" s="19" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AS236" s="14" t="s">
         <v>92</v>
@@ -64647,7 +64650,7 @@
         <v>95</v>
       </c>
       <c r="BY236" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="BZ236" s="14" t="s">
         <v>104</v>
@@ -64659,16 +64662,16 @@
         <v>13</v>
       </c>
       <c r="CC236" s="14" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="CD236" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="CE236" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF236" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="237" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -64676,7 +64679,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C237" s="15">
         <v>2</v>
@@ -64811,7 +64814,7 @@
         <v>94</v>
       </c>
       <c r="AU237" s="19" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AV237" s="14" t="s">
         <v>92</v>
@@ -64901,7 +64904,7 @@
         <v>95</v>
       </c>
       <c r="BY237" s="14" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BZ237" s="14" t="s">
         <v>104</v>
@@ -64913,16 +64916,16 @@
         <v>2</v>
       </c>
       <c r="CC237" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="CD237" s="14" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="CE237" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF237" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="238" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -64930,7 +64933,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C238" s="15">
         <v>2</v>
@@ -64957,7 +64960,7 @@
         <v>92</v>
       </c>
       <c r="K238" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L238" s="15" t="s">
         <v>95</v>
@@ -65155,7 +65158,7 @@
         <v>95</v>
       </c>
       <c r="BY238" s="14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="BZ238" s="14" t="s">
         <v>104</v>
@@ -65176,7 +65179,7 @@
         <v>108</v>
       </c>
       <c r="CF238" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="239" spans="1:84" ht="144" x14ac:dyDescent="0.2">
@@ -65184,7 +65187,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C239" s="15">
         <v>2</v>
@@ -65298,7 +65301,7 @@
         <v>92</v>
       </c>
       <c r="AN239" s="14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AO239" s="14" t="s">
         <v>94</v>
@@ -65310,7 +65313,7 @@
         <v>94</v>
       </c>
       <c r="AR239" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AS239" s="14" t="s">
         <v>95</v>
@@ -65409,7 +65412,7 @@
         <v>95</v>
       </c>
       <c r="BY239" s="14" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BZ239" s="14" t="s">
         <v>104</v>
@@ -65424,13 +65427,13 @@
         <v>662</v>
       </c>
       <c r="CD239" s="14" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="CE239" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF239" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="240" spans="1:84" ht="192" x14ac:dyDescent="0.2">
@@ -65438,7 +65441,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C240" s="15">
         <v>1</v>
@@ -65564,7 +65567,7 @@
         <v>94</v>
       </c>
       <c r="AR240" s="19" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AS240" s="14" t="s">
         <v>95</v>
@@ -65663,7 +65666,7 @@
         <v>95</v>
       </c>
       <c r="BY240" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="BZ240" s="14" t="s">
         <v>104</v>
@@ -65675,16 +65678,16 @@
         <v>1</v>
       </c>
       <c r="CC240" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="CD240" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="CE240" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF240" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="241" spans="1:84" ht="176" x14ac:dyDescent="0.2">
@@ -65692,7 +65695,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C241" s="15">
         <v>1</v>
@@ -65818,7 +65821,7 @@
         <v>94</v>
       </c>
       <c r="AR241" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AS241" s="14" t="s">
         <v>95</v>
@@ -65827,7 +65830,7 @@
         <v>95</v>
       </c>
       <c r="AU241" s="19" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AV241" s="14" t="s">
         <v>95</v>
@@ -65917,13 +65920,13 @@
         <v>95</v>
       </c>
       <c r="BY241" s="14" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="BZ241" s="14" t="s">
         <v>104</v>
       </c>
       <c r="CA241" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="CB241" s="14">
         <v>12</v>
@@ -65932,13 +65935,13 @@
         <v>620</v>
       </c>
       <c r="CD241" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="CE241" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF241" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="242" spans="1:84" ht="128" x14ac:dyDescent="0.2">
@@ -65946,7 +65949,7 @@
         <v>2</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C242" s="15">
         <v>1</v>
@@ -66072,7 +66075,7 @@
         <v>94</v>
       </c>
       <c r="AR242" s="19" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AS242" s="14" t="s">
         <v>92</v>
@@ -66171,7 +66174,7 @@
         <v>95</v>
       </c>
       <c r="BY242" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="BZ242" s="14" t="s">
         <v>104</v>
@@ -66186,13 +66189,13 @@
         <v>695</v>
       </c>
       <c r="CD242" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="CE242" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF242" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="243" spans="1:84" ht="144" x14ac:dyDescent="0.2">
@@ -66200,7 +66203,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C243" s="15">
         <v>1</v>
@@ -66425,7 +66428,7 @@
         <v>95</v>
       </c>
       <c r="BY243" s="14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BZ243" s="14" t="s">
         <v>104</v>
@@ -66440,13 +66443,13 @@
         <v>662</v>
       </c>
       <c r="CD243" s="14" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="CE243" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF243" s="13" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="244" spans="1:84" ht="160" x14ac:dyDescent="0.2">
@@ -66454,7 +66457,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C244" s="15">
         <v>1</v>
@@ -66580,7 +66583,7 @@
         <v>94</v>
       </c>
       <c r="AR244" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AS244" s="14" t="s">
         <v>95</v>
@@ -66673,19 +66676,19 @@
         <v>94</v>
       </c>
       <c r="BW244" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BX244" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY244" s="14" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BZ244" s="14" t="s">
         <v>104</v>
       </c>
       <c r="CA244" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="CB244" s="14">
         <v>12</v>
@@ -66694,13 +66697,13 @@
         <v>676</v>
       </c>
       <c r="CD244" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="CE244" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF244" s="13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="245" spans="1:84" ht="288" x14ac:dyDescent="0.2">
@@ -66708,7 +66711,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C245" s="15">
         <v>1</v>
@@ -66735,7 +66738,7 @@
         <v>92</v>
       </c>
       <c r="K245" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="L245" s="15" t="s">
         <v>95</v>
@@ -66933,7 +66936,7 @@
         <v>95</v>
       </c>
       <c r="BY245" s="14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="BZ245" s="14" t="s">
         <v>104</v>
@@ -66945,16 +66948,16 @@
         <v>13</v>
       </c>
       <c r="CC245" s="14" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="CD245" s="14" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="CE245" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF245" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="246" spans="1:84" ht="192" x14ac:dyDescent="0.2">
@@ -66962,7 +66965,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C246" s="15">
         <v>1</v>
@@ -66989,7 +66992,7 @@
         <v>92</v>
       </c>
       <c r="K246" s="15" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="L246" s="15" t="s">
         <v>95</v>
@@ -67097,7 +67100,7 @@
         <v>92</v>
       </c>
       <c r="AU246" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AV246" s="14" t="s">
         <v>95</v>
@@ -67187,7 +67190,7 @@
         <v>95</v>
       </c>
       <c r="BY246" s="14" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="BZ246" s="14" t="s">
         <v>104</v>
@@ -67199,16 +67202,16 @@
         <v>12</v>
       </c>
       <c r="CC246" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="CD246" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="CE246" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF246" s="13" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="247" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -67216,7 +67219,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C247" s="15">
         <v>1</v>
@@ -67342,7 +67345,7 @@
         <v>92</v>
       </c>
       <c r="AR247" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AS247" s="14" t="s">
         <v>95</v>
@@ -67441,7 +67444,7 @@
         <v>95</v>
       </c>
       <c r="BY247" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BZ247" s="14" t="s">
         <v>129</v>
@@ -67459,10 +67462,10 @@
         <v>94</v>
       </c>
       <c r="CE247" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="CF247" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="248" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -67470,7 +67473,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C248" s="15">
         <v>2</v>
@@ -67716,7 +67719,7 @@
         <v>108</v>
       </c>
       <c r="CF248" s="13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="249" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -67724,7 +67727,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C249" s="15">
         <v>1</v>
@@ -67850,7 +67853,7 @@
         <v>92</v>
       </c>
       <c r="AR249" s="19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AS249" s="14" t="s">
         <v>92</v>
@@ -67949,7 +67952,7 @@
         <v>95</v>
       </c>
       <c r="BY249" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BZ249" s="14" t="s">
         <v>129</v>
@@ -67970,7 +67973,7 @@
         <v>94</v>
       </c>
       <c r="CF249" s="13" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="250" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -67978,7 +67981,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C250" s="15">
         <v>2</v>
@@ -68203,7 +68206,7 @@
         <v>95</v>
       </c>
       <c r="BY250" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BZ250" s="14" t="s">
         <v>129</v>
@@ -68224,7 +68227,7 @@
         <v>108</v>
       </c>
       <c r="CF250" s="13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="251" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -68232,7 +68235,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C251" s="15">
         <v>2</v>
@@ -68457,7 +68460,7 @@
         <v>95</v>
       </c>
       <c r="BY251" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BZ251" s="14" t="s">
         <v>129</v>
@@ -68478,7 +68481,7 @@
         <v>108</v>
       </c>
       <c r="CF251" s="13" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="252" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -68486,7 +68489,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C252" s="15">
         <v>1</v>
@@ -68711,7 +68714,7 @@
         <v>95</v>
       </c>
       <c r="BY252" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="BZ252" s="14" t="s">
         <v>129</v>
@@ -68732,7 +68735,7 @@
         <v>108</v>
       </c>
       <c r="CF252" s="13" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="253" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -68740,7 +68743,7 @@
         <v>2</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C253" s="15">
         <v>2</v>
@@ -68965,7 +68968,7 @@
         <v>95</v>
       </c>
       <c r="BY253" s="14" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="BZ253" s="14" t="s">
         <v>129</v>
@@ -68986,7 +68989,7 @@
         <v>108</v>
       </c>
       <c r="CF253" s="13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="254" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -68994,7 +68997,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C254" s="15">
         <v>1</v>
@@ -69120,7 +69123,7 @@
         <v>92</v>
       </c>
       <c r="AR254" s="19" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AS254" s="14" t="s">
         <v>95</v>
@@ -69240,7 +69243,7 @@
         <v>94</v>
       </c>
       <c r="CF254" s="13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="255" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -69248,7 +69251,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C255" s="15">
         <v>1</v>
@@ -69275,7 +69278,7 @@
         <v>92</v>
       </c>
       <c r="K255" s="15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="L255" s="15" t="s">
         <v>95</v>
@@ -69374,7 +69377,7 @@
         <v>94</v>
       </c>
       <c r="AR255" s="19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AS255" s="14" t="s">
         <v>95</v>
@@ -69494,7 +69497,7 @@
         <v>94</v>
       </c>
       <c r="CF255" s="13" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="256" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -69502,7 +69505,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C256" s="15">
         <v>2</v>
@@ -69628,7 +69631,7 @@
         <v>94</v>
       </c>
       <c r="AR256" s="19" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AS256" s="14" t="s">
         <v>92</v>
@@ -69727,7 +69730,7 @@
         <v>95</v>
       </c>
       <c r="BY256" s="14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="BZ256" s="14" t="s">
         <v>129</v>
@@ -69748,7 +69751,7 @@
         <v>94</v>
       </c>
       <c r="CF256" s="13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="257" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -69756,7 +69759,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C257" s="15">
         <v>2</v>
@@ -69882,7 +69885,7 @@
         <v>94</v>
       </c>
       <c r="AR257" s="19" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AS257" s="14" t="s">
         <v>92</v>
@@ -69939,7 +69942,7 @@
         <v>94</v>
       </c>
       <c r="BK257" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="BL257" s="14" t="s">
         <v>94</v>
@@ -69981,7 +69984,7 @@
         <v>95</v>
       </c>
       <c r="BY257" s="14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="BZ257" s="14" t="s">
         <v>129</v>
@@ -70002,7 +70005,7 @@
         <v>94</v>
       </c>
       <c r="CF257" s="13" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="258" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -70010,7 +70013,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C258" s="15">
         <v>1</v>
@@ -70136,7 +70139,7 @@
         <v>92</v>
       </c>
       <c r="AR258" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AS258" s="14" t="s">
         <v>95</v>
@@ -70235,7 +70238,7 @@
         <v>95</v>
       </c>
       <c r="BY258" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BZ258" s="14" t="s">
         <v>129</v>
@@ -70253,10 +70256,10 @@
         <v>94</v>
       </c>
       <c r="CE258" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="CF258" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="259" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -70264,7 +70267,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C259" s="15" t="s">
         <v>94</v>
@@ -70489,7 +70492,7 @@
         <v>95</v>
       </c>
       <c r="BY259" s="14" t="s">
-        <v>1058</v>
+        <v>1281</v>
       </c>
       <c r="BZ259" s="14" t="s">
         <v>104</v>
@@ -70501,16 +70504,16 @@
         <v>11</v>
       </c>
       <c r="CC259" s="14" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="CD259" s="14" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="CE259" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF259" s="13" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="260" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -70518,7 +70521,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C260" s="15">
         <v>2</v>
@@ -70743,7 +70746,7 @@
         <v>95</v>
       </c>
       <c r="BY260" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BZ260" s="14" t="s">
         <v>129</v>
@@ -70761,10 +70764,10 @@
         <v>94</v>
       </c>
       <c r="CE260" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="CF260" s="13" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="261" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -70772,7 +70775,7 @@
         <v>2</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C261" s="15">
         <v>1</v>
@@ -70898,7 +70901,7 @@
         <v>94</v>
       </c>
       <c r="AR261" s="19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AS261" s="14" t="s">
         <v>95</v>
@@ -70997,7 +71000,7 @@
         <v>95</v>
       </c>
       <c r="BY261" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BZ261" s="14" t="s">
         <v>129</v>
@@ -71015,10 +71018,10 @@
         <v>94</v>
       </c>
       <c r="CE261" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="CF261" s="13" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="262" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -71026,7 +71029,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C262" s="15">
         <v>2</v>
@@ -71251,7 +71254,7 @@
         <v>95</v>
       </c>
       <c r="BY262" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BZ262" s="14" t="s">
         <v>129</v>
@@ -71272,7 +71275,7 @@
         <v>94</v>
       </c>
       <c r="CF262" s="13" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="263" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -71280,7 +71283,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C263" s="15">
         <v>1</v>
@@ -71505,7 +71508,7 @@
         <v>95</v>
       </c>
       <c r="BY263" s="14" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="BZ263" s="14" t="s">
         <v>129</v>
@@ -71526,7 +71529,7 @@
         <v>108</v>
       </c>
       <c r="CF263" s="13" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="264" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -71534,7 +71537,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C264" s="15">
         <v>1</v>
@@ -71759,7 +71762,7 @@
         <v>95</v>
       </c>
       <c r="BY264" s="14" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="BZ264" s="14" t="s">
         <v>129</v>
@@ -71780,7 +71783,7 @@
         <v>108</v>
       </c>
       <c r="CF264" s="13" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="265" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -71788,7 +71791,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C265" s="15">
         <v>2</v>
@@ -71914,7 +71917,7 @@
         <v>94</v>
       </c>
       <c r="AR265" s="19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AS265" s="14" t="s">
         <v>95</v>
@@ -72013,7 +72016,7 @@
         <v>95</v>
       </c>
       <c r="BY265" s="14" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="BZ265" s="14" t="s">
         <v>129</v>
@@ -72034,7 +72037,7 @@
         <v>108</v>
       </c>
       <c r="CF265" s="13" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="266" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -72042,7 +72045,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C266" s="15">
         <v>1</v>
@@ -72267,7 +72270,7 @@
         <v>95</v>
       </c>
       <c r="BY266" s="14" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="BZ266" s="14" t="s">
         <v>129</v>
@@ -72288,7 +72291,7 @@
         <v>94</v>
       </c>
       <c r="CF266" s="13" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="267" spans="1:84" ht="208" x14ac:dyDescent="0.2">
@@ -72296,7 +72299,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C267" s="15">
         <v>1</v>
@@ -72431,7 +72434,7 @@
         <v>94</v>
       </c>
       <c r="AU267" s="19" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AV267" s="14" t="s">
         <v>95</v>
@@ -72521,28 +72524,28 @@
         <v>95</v>
       </c>
       <c r="BY267" s="14" t="s">
-        <v>1074</v>
+        <v>1278</v>
       </c>
       <c r="BZ267" s="14" t="s">
         <v>104</v>
       </c>
       <c r="CA267" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="CB267" s="14">
         <v>8</v>
       </c>
       <c r="CC267" s="14" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="CD267" s="14" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="CE267" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF267" s="13" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="268" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -72550,7 +72553,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C268" s="15">
         <v>2</v>
@@ -72559,13 +72562,13 @@
         <v>94</v>
       </c>
       <c r="E268" s="19" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F268" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G268" s="19" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H268" s="14" t="s">
         <v>95</v>
@@ -72676,7 +72679,7 @@
         <v>94</v>
       </c>
       <c r="AR268" s="19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AS268" s="14" t="s">
         <v>95</v>
@@ -72685,7 +72688,7 @@
         <v>95</v>
       </c>
       <c r="AU268" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AV268" s="14" t="s">
         <v>95</v>
@@ -72775,7 +72778,7 @@
         <v>115</v>
       </c>
       <c r="BY268" s="14" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="BZ268" s="14" t="s">
         <v>129</v>
@@ -72793,10 +72796,10 @@
         <v>94</v>
       </c>
       <c r="CE268" s="14" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="CF268" s="13" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="269" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -72804,7 +72807,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C269" s="15">
         <v>1</v>
@@ -72813,13 +72816,13 @@
         <v>94</v>
       </c>
       <c r="E269" s="19" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F269" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G269" s="19" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="H269" s="14" t="s">
         <v>95</v>
@@ -72930,7 +72933,7 @@
         <v>94</v>
       </c>
       <c r="AR269" s="19" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AS269" s="14" t="s">
         <v>95</v>
@@ -72939,7 +72942,7 @@
         <v>95</v>
       </c>
       <c r="AU269" s="19" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AV269" s="14" t="s">
         <v>95</v>
@@ -73029,7 +73032,7 @@
         <v>115</v>
       </c>
       <c r="BY269" s="14" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="BZ269" s="14" t="s">
         <v>129</v>
@@ -73050,7 +73053,7 @@
         <v>108</v>
       </c>
       <c r="CF269" s="13" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="270" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -73058,7 +73061,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C270" s="15">
         <v>2</v>
@@ -73103,13 +73106,13 @@
         <v>94</v>
       </c>
       <c r="Q270" s="16" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="R270" s="16" t="s">
         <v>92</v>
       </c>
       <c r="S270" s="16" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="T270" s="14" t="s">
         <v>92</v>
@@ -73283,7 +73286,7 @@
         <v>146</v>
       </c>
       <c r="BY270" s="16" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="BZ270" s="16" t="s">
         <v>129</v>
@@ -73304,7 +73307,7 @@
         <v>94</v>
       </c>
       <c r="CF270" s="13" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="271" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -73312,7 +73315,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C271" s="15">
         <v>1</v>
@@ -73537,7 +73540,7 @@
         <v>146</v>
       </c>
       <c r="BY271" s="16" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="BZ271" s="16" t="s">
         <v>129</v>
@@ -73558,7 +73561,7 @@
         <v>94</v>
       </c>
       <c r="CF271" s="13" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="272" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -73566,7 +73569,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C272" s="15">
         <v>1</v>
@@ -73617,7 +73620,7 @@
         <v>92</v>
       </c>
       <c r="S272" s="16" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="T272" s="14" t="s">
         <v>92</v>
@@ -73791,7 +73794,7 @@
         <v>146</v>
       </c>
       <c r="BY272" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BZ272" s="16" t="s">
         <v>129</v>
@@ -73812,7 +73815,7 @@
         <v>94</v>
       </c>
       <c r="CF272" s="13" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="273" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -73820,7 +73823,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C273" s="15">
         <v>1</v>
@@ -74042,10 +74045,10 @@
         <v>94</v>
       </c>
       <c r="BX273" s="14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="BY273" s="16" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="BZ273" s="16" t="s">
         <v>129</v>
@@ -74066,7 +74069,7 @@
         <v>94</v>
       </c>
       <c r="CF273" s="13" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="274" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -74074,7 +74077,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C274" s="15">
         <v>1</v>
@@ -74125,7 +74128,7 @@
         <v>92</v>
       </c>
       <c r="S274" s="16" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="T274" s="14" t="s">
         <v>92</v>
@@ -74188,7 +74191,7 @@
         <v>92</v>
       </c>
       <c r="AN274" s="16" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AO274" s="16" t="s">
         <v>95</v>
@@ -74320,7 +74323,7 @@
         <v>94</v>
       </c>
       <c r="CF274" s="13" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="275" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -74328,7 +74331,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C275" s="15">
         <v>2</v>
@@ -74511,7 +74514,7 @@
         <v>95</v>
       </c>
       <c r="BK275" s="14" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="BL275" s="14" t="s">
         <v>156</v>
@@ -74574,7 +74577,7 @@
         <v>94</v>
       </c>
       <c r="CF275" s="13" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="276" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -74582,7 +74585,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C276" s="15">
         <v>2</v>
@@ -74807,7 +74810,7 @@
         <v>146</v>
       </c>
       <c r="BY276" s="16" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="BZ276" s="16" t="s">
         <v>129</v>
@@ -74828,7 +74831,7 @@
         <v>94</v>
       </c>
       <c r="CF276" s="13" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="277" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -74836,7 +74839,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C277" s="15">
         <v>1</v>
@@ -75019,49 +75022,49 @@
         <v>95</v>
       </c>
       <c r="BK277" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BL277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM277" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN277" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO277" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR277" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS277" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW277" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX277" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BY277" s="16" t="s">
         <v>1103</v>
-      </c>
-      <c r="BL277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM277" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN277" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO277" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR277" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BS277" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW277" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX277" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY277" s="16" t="s">
-        <v>1107</v>
       </c>
       <c r="BZ277" s="16" t="s">
         <v>129</v>
@@ -75082,7 +75085,7 @@
         <v>94</v>
       </c>
       <c r="CF277" s="13" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="278" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -75090,7 +75093,7 @@
         <v>2</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C278" s="15">
         <v>1</v>
@@ -75336,7 +75339,7 @@
         <v>94</v>
       </c>
       <c r="CF278" s="13" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="279" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -75344,7 +75347,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C279" s="15">
         <v>1</v>
@@ -75527,7 +75530,7 @@
         <v>92</v>
       </c>
       <c r="BK279" s="14" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="BL279" s="14" t="s">
         <v>156</v>
@@ -75590,7 +75593,7 @@
         <v>94</v>
       </c>
       <c r="CF279" s="13" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="280" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -75598,7 +75601,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C280" s="15">
         <v>2</v>
@@ -75781,7 +75784,7 @@
         <v>92</v>
       </c>
       <c r="BK280" s="14" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="BL280" s="14" t="s">
         <v>156</v>
@@ -75844,7 +75847,7 @@
         <v>94</v>
       </c>
       <c r="CF280" s="13" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="281" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -75852,7 +75855,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C281" s="15">
         <v>1</v>
@@ -76077,7 +76080,7 @@
         <v>115</v>
       </c>
       <c r="BY281" s="16" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="BZ281" s="16" t="s">
         <v>129</v>
@@ -76098,7 +76101,7 @@
         <v>94</v>
       </c>
       <c r="CF281" s="13" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="282" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -76106,7 +76109,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C282" s="15">
         <v>1</v>
@@ -76289,7 +76292,7 @@
         <v>95</v>
       </c>
       <c r="BK282" s="14" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="BL282" s="14" t="s">
         <v>156</v>
@@ -76352,7 +76355,7 @@
         <v>94</v>
       </c>
       <c r="CF282" s="13" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="283" spans="1:84" ht="128" x14ac:dyDescent="0.2">
@@ -76360,7 +76363,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C283" s="15">
         <v>2</v>
@@ -76411,7 +76414,7 @@
         <v>92</v>
       </c>
       <c r="S283" s="16" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="T283" s="14" t="s">
         <v>92</v>
@@ -76474,7 +76477,7 @@
         <v>92</v>
       </c>
       <c r="AN283" s="16" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AO283" s="16" t="s">
         <v>92</v>
@@ -76543,7 +76546,7 @@
         <v>92</v>
       </c>
       <c r="BK283" s="14" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="BL283" s="14" t="s">
         <v>101</v>
@@ -76585,7 +76588,7 @@
         <v>146</v>
       </c>
       <c r="BY283" s="16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="BZ283" s="16" t="s">
         <v>129</v>
@@ -76606,7 +76609,7 @@
         <v>94</v>
       </c>
       <c r="CF283" s="13" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="284" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -76614,7 +76617,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C284" s="15">
         <v>2</v>
@@ -76665,7 +76668,7 @@
         <v>92</v>
       </c>
       <c r="S284" s="16" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="T284" s="14" t="s">
         <v>92</v>
@@ -76728,7 +76731,7 @@
         <v>92</v>
       </c>
       <c r="AN284" s="16" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="AO284" s="16" t="s">
         <v>95</v>
@@ -76797,7 +76800,7 @@
         <v>92</v>
       </c>
       <c r="BK284" s="14" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="BL284" s="14" t="s">
         <v>101</v>
@@ -76860,7 +76863,7 @@
         <v>94</v>
       </c>
       <c r="CF284" s="13" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="285" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -76868,7 +76871,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C285" s="15">
         <v>1</v>
@@ -76982,7 +76985,7 @@
         <v>92</v>
       </c>
       <c r="AN285" s="16" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="AO285" s="16" t="s">
         <v>95</v>
@@ -77093,13 +77096,13 @@
         <v>146</v>
       </c>
       <c r="BY285" s="16" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="BZ285" s="16" t="s">
         <v>104</v>
       </c>
       <c r="CA285" s="33" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="CB285" s="14">
         <v>9</v>
@@ -77108,13 +77111,13 @@
         <v>106</v>
       </c>
       <c r="CD285" s="16" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="CE285" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF285" s="13" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="286" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -77122,7 +77125,7 @@
         <v>2</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C286" s="15">
         <v>2</v>
@@ -77344,7 +77347,7 @@
         <v>94</v>
       </c>
       <c r="BX286" s="14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="BY286" s="16" t="s">
         <v>624</v>
@@ -77368,7 +77371,7 @@
         <v>94</v>
       </c>
       <c r="CF286" s="13" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="287" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -77376,7 +77379,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C287" s="15">
         <v>2</v>
@@ -77598,7 +77601,7 @@
         <v>94</v>
       </c>
       <c r="BX287" s="14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="BY287" s="14" t="s">
         <v>128</v>
@@ -77622,7 +77625,7 @@
         <v>94</v>
       </c>
       <c r="CF287" s="13" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="288" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -77630,7 +77633,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C288" s="15">
         <v>2</v>
@@ -77813,7 +77816,7 @@
         <v>95</v>
       </c>
       <c r="BK288" s="14" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="BL288" s="14" t="s">
         <v>101</v>
@@ -77876,7 +77879,7 @@
         <v>94</v>
       </c>
       <c r="CF288" s="13" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="289" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -77884,7 +77887,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C289" s="15">
         <v>2</v>
@@ -78109,7 +78112,7 @@
         <v>115</v>
       </c>
       <c r="BY289" s="16" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="BZ289" s="16" t="s">
         <v>129</v>
@@ -78130,7 +78133,7 @@
         <v>94</v>
       </c>
       <c r="CF289" s="13" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="290" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -78138,7 +78141,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C290" s="15">
         <v>2</v>
@@ -78360,10 +78363,10 @@
         <v>94</v>
       </c>
       <c r="BX290" s="14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="BY290" s="16" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="BZ290" s="16" t="s">
         <v>129</v>
@@ -78384,7 +78387,7 @@
         <v>94</v>
       </c>
       <c r="CF290" s="13" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="291" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -78392,7 +78395,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C291" s="15">
         <v>1</v>
@@ -78617,7 +78620,7 @@
         <v>146</v>
       </c>
       <c r="BY291" s="16" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="BZ291" s="16" t="s">
         <v>129</v>
@@ -78638,7 +78641,7 @@
         <v>94</v>
       </c>
       <c r="CF291" s="13" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="292" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -78646,7 +78649,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C292" s="15">
         <v>1</v>
@@ -78868,7 +78871,7 @@
         <v>94</v>
       </c>
       <c r="BX292" s="14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="BY292" s="14" t="s">
         <v>139</v>
@@ -78892,7 +78895,7 @@
         <v>94</v>
       </c>
       <c r="CF292" s="13" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="293" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -78900,7 +78903,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C293" s="15">
         <v>2</v>
@@ -79125,7 +79128,7 @@
         <v>95</v>
       </c>
       <c r="BY293" s="14" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="BZ293" s="14" t="s">
         <v>129</v>
@@ -79146,7 +79149,7 @@
         <v>108</v>
       </c>
       <c r="CF293" s="13" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="294" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -79154,7 +79157,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C294" s="15">
         <v>1</v>
@@ -79379,7 +79382,7 @@
         <v>94</v>
       </c>
       <c r="BY294" s="14" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="BZ294" s="14" t="s">
         <v>129</v>
@@ -79400,7 +79403,7 @@
         <v>108</v>
       </c>
       <c r="CF294" s="13" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="295" spans="1:84" ht="96" x14ac:dyDescent="0.2">
@@ -79408,7 +79411,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C295" s="15">
         <v>1</v>
@@ -79423,7 +79426,7 @@
         <v>95</v>
       </c>
       <c r="G295" s="19" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="H295" s="14" t="s">
         <v>95</v>
@@ -79501,7 +79504,7 @@
         <v>92</v>
       </c>
       <c r="AG295" s="14" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AH295" s="14" t="s">
         <v>92</v>
@@ -79609,7 +79612,7 @@
         <v>94</v>
       </c>
       <c r="BQ295" s="14" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="BR295" s="14" t="s">
         <v>94</v>
@@ -79627,13 +79630,13 @@
         <v>95</v>
       </c>
       <c r="BW295" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="BX295" s="14" t="s">
         <v>300</v>
       </c>
       <c r="BY295" s="14" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="BZ295" s="14" t="s">
         <v>104</v>
@@ -79645,16 +79648,16 @@
         <v>13</v>
       </c>
       <c r="CC295" s="14" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="CD295" s="14" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="CE295" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF295" s="13" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="296" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -79662,7 +79665,7 @@
         <v>2</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C296" s="15">
         <v>2</v>
@@ -79881,13 +79884,13 @@
         <v>94</v>
       </c>
       <c r="BW296" s="14" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="BX296" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY296" s="14" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="BZ296" s="14" t="s">
         <v>104</v>
@@ -79899,16 +79902,16 @@
         <v>13</v>
       </c>
       <c r="CC296" s="14" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="CD296" s="14" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="CE296" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF296" s="13" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="297" spans="1:84" ht="176" x14ac:dyDescent="0.2">
@@ -79916,7 +79919,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C297" s="15">
         <v>1</v>
@@ -80042,7 +80045,7 @@
         <v>94</v>
       </c>
       <c r="AR297" s="19" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AS297" s="14" t="s">
         <v>92</v>
@@ -80051,7 +80054,7 @@
         <v>92</v>
       </c>
       <c r="AU297" s="19" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AV297" s="14" t="s">
         <v>92</v>
@@ -80099,7 +80102,7 @@
         <v>92</v>
       </c>
       <c r="BK297" s="14" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="BL297" s="14" t="s">
         <v>282</v>
@@ -80141,7 +80144,7 @@
         <v>146</v>
       </c>
       <c r="BY297" s="14" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="BZ297" s="14" t="s">
         <v>129</v>
@@ -80162,7 +80165,7 @@
         <v>108</v>
       </c>
       <c r="CF297" s="13" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="298" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -80170,7 +80173,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C298" s="15">
         <v>1</v>
@@ -80296,7 +80299,7 @@
         <v>94</v>
       </c>
       <c r="AR298" s="19" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AS298" s="14" t="s">
         <v>92</v>
@@ -80305,7 +80308,7 @@
         <v>92</v>
       </c>
       <c r="AU298" s="19" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AV298" s="14" t="s">
         <v>92</v>
@@ -80353,7 +80356,7 @@
         <v>92</v>
       </c>
       <c r="BK298" s="14" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="BL298" s="14" t="s">
         <v>171</v>
@@ -80389,13 +80392,13 @@
         <v>94</v>
       </c>
       <c r="BW298" s="14" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="BX298" s="14" t="s">
         <v>146</v>
       </c>
       <c r="BY298" s="14" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="BZ298" s="14" t="s">
         <v>129</v>
@@ -80416,7 +80419,7 @@
         <v>108</v>
       </c>
       <c r="CF298" s="13" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="299" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -80424,7 +80427,7 @@
         <v>2</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C299" s="15">
         <v>1</v>
@@ -80451,7 +80454,7 @@
         <v>92</v>
       </c>
       <c r="K299" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L299" s="15" t="s">
         <v>94</v>
@@ -80670,7 +80673,7 @@
         <v>108</v>
       </c>
       <c r="CF299" s="13" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="300" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -80678,7 +80681,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C300" s="15">
         <v>1</v>
@@ -80705,7 +80708,7 @@
         <v>92</v>
       </c>
       <c r="K300" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L300" s="15" t="s">
         <v>94</v>
@@ -80804,7 +80807,7 @@
         <v>92</v>
       </c>
       <c r="AR300" s="19" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AS300" s="14" t="s">
         <v>95</v>
@@ -80903,7 +80906,7 @@
         <v>146</v>
       </c>
       <c r="BY300" s="14" t="s">
-        <v>1167</v>
+        <v>1279</v>
       </c>
       <c r="BZ300" s="14" t="s">
         <v>104</v>
@@ -80915,16 +80918,16 @@
         <v>11</v>
       </c>
       <c r="CC300" s="14" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="CD300" s="14" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="CE300" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF300" s="13" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="301" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -80932,7 +80935,7 @@
         <v>2</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C301" s="15">
         <v>1</v>
@@ -80959,7 +80962,7 @@
         <v>92</v>
       </c>
       <c r="K301" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L301" s="15" t="s">
         <v>94</v>
@@ -81058,7 +81061,7 @@
         <v>95</v>
       </c>
       <c r="AR301" s="19" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="AS301" s="14" t="s">
         <v>95</v>
@@ -81157,7 +81160,7 @@
         <v>146</v>
       </c>
       <c r="BY301" s="14" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="BZ301" s="14" t="s">
         <v>104</v>
@@ -81169,16 +81172,16 @@
         <v>13</v>
       </c>
       <c r="CC301" s="14" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="CD301" s="14" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="CE301" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF301" s="13" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="302" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -81186,7 +81189,7 @@
         <v>2</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C302" s="15">
         <v>2</v>
@@ -81312,7 +81315,7 @@
         <v>94</v>
       </c>
       <c r="AR302" s="19" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AS302" s="14" t="s">
         <v>95</v>
@@ -81411,7 +81414,7 @@
         <v>146</v>
       </c>
       <c r="BY302" s="14" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="BZ302" s="14" t="s">
         <v>104</v>
@@ -81423,16 +81426,16 @@
         <v>2</v>
       </c>
       <c r="CC302" s="14" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="CD302" s="14" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="CE302" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF302" s="13" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="303" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -81440,7 +81443,7 @@
         <v>2</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C303" s="15">
         <v>1</v>
@@ -81467,7 +81470,7 @@
         <v>92</v>
       </c>
       <c r="K303" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L303" s="15" t="s">
         <v>94</v>
@@ -81566,7 +81569,7 @@
         <v>92</v>
       </c>
       <c r="AR303" s="19" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AS303" s="14" t="s">
         <v>95</v>
@@ -81665,7 +81668,7 @@
         <v>146</v>
       </c>
       <c r="BY303" s="14" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="BZ303" s="14" t="s">
         <v>129</v>
@@ -81686,7 +81689,7 @@
         <v>108</v>
       </c>
       <c r="CF303" s="13" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="304" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -81694,7 +81697,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C304" s="15">
         <v>1</v>
@@ -81919,7 +81922,7 @@
         <v>146</v>
       </c>
       <c r="BY304" s="14" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="BZ304" s="14" t="s">
         <v>129</v>
@@ -81940,7 +81943,7 @@
         <v>108</v>
       </c>
       <c r="CF304" s="13" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="305" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -81948,7 +81951,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C305" s="15">
         <v>1</v>
@@ -81975,7 +81978,7 @@
         <v>92</v>
       </c>
       <c r="K305" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L305" s="15" t="s">
         <v>94</v>
@@ -82074,7 +82077,7 @@
         <v>95</v>
       </c>
       <c r="AR305" s="19" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="AS305" s="14" t="s">
         <v>95</v>
@@ -82173,7 +82176,7 @@
         <v>146</v>
       </c>
       <c r="BY305" s="14" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="BZ305" s="14" t="s">
         <v>129</v>
@@ -82194,7 +82197,7 @@
         <v>108</v>
       </c>
       <c r="CF305" s="13" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="306" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -82202,7 +82205,7 @@
         <v>2</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C306" s="15">
         <v>2</v>
@@ -82427,7 +82430,7 @@
         <v>146</v>
       </c>
       <c r="BY306" s="14" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="BZ306" s="14" t="s">
         <v>129</v>
@@ -82448,7 +82451,7 @@
         <v>94</v>
       </c>
       <c r="CF306" s="13" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="307" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -82456,7 +82459,7 @@
         <v>2</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C307" s="15">
         <v>1</v>
@@ -82483,7 +82486,7 @@
         <v>92</v>
       </c>
       <c r="K307" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L307" s="15" t="s">
         <v>94</v>
@@ -82681,7 +82684,7 @@
         <v>146</v>
       </c>
       <c r="BY307" s="14" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="BZ307" s="14" t="s">
         <v>129</v>
@@ -82702,7 +82705,7 @@
         <v>108</v>
       </c>
       <c r="CF307" s="13" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="308" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -82710,7 +82713,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C308" s="15">
         <v>1</v>
@@ -82737,7 +82740,7 @@
         <v>92</v>
       </c>
       <c r="K308" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L308" s="15" t="s">
         <v>94</v>
@@ -82956,7 +82959,7 @@
         <v>108</v>
       </c>
       <c r="CF308" s="13" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="309" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -82964,7 +82967,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C309" s="15">
         <v>2</v>
@@ -83090,7 +83093,7 @@
         <v>94</v>
       </c>
       <c r="AR309" s="19" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="AS309" s="14" t="s">
         <v>95</v>
@@ -83189,7 +83192,7 @@
         <v>146</v>
       </c>
       <c r="BY309" s="14" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="BZ309" s="14" t="s">
         <v>129</v>
@@ -83210,7 +83213,7 @@
         <v>108</v>
       </c>
       <c r="CF309" s="13" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="310" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -83218,7 +83221,7 @@
         <v>2</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C310" s="15">
         <v>2</v>
@@ -83245,7 +83248,7 @@
         <v>92</v>
       </c>
       <c r="K310" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="L310" s="15" t="s">
         <v>94</v>
@@ -83443,7 +83446,7 @@
         <v>146</v>
       </c>
       <c r="BY310" s="14" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="BZ310" s="14" t="s">
         <v>129</v>
@@ -83464,7 +83467,7 @@
         <v>165</v>
       </c>
       <c r="CF310" s="13" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="311" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -83472,7 +83475,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C311" s="15">
         <v>1</v>
@@ -83697,13 +83700,13 @@
         <v>94</v>
       </c>
       <c r="BY311" s="14" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="BZ311" s="14" t="s">
         <v>129</v>
       </c>
       <c r="CA311" s="14" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="CB311" s="14">
         <v>1</v>
@@ -83715,10 +83718,10 @@
         <v>94</v>
       </c>
       <c r="CE311" s="14" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="CF311" s="13" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="312" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -83726,7 +83729,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="C312" s="15">
         <v>1</v>
@@ -83951,7 +83954,7 @@
         <v>94</v>
       </c>
       <c r="BY312" s="14" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="BZ312" s="14" t="s">
         <v>129</v>
@@ -83972,7 +83975,7 @@
         <v>108</v>
       </c>
       <c r="CF312" s="13" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="313" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -83980,7 +83983,7 @@
         <v>2</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C313" s="15">
         <v>1</v>
@@ -84205,13 +84208,13 @@
         <v>94</v>
       </c>
       <c r="BY313" s="14" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="BZ313" s="14" t="s">
         <v>129</v>
       </c>
       <c r="CA313" s="14" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="CB313" s="14">
         <v>1</v>
@@ -84223,10 +84226,10 @@
         <v>94</v>
       </c>
       <c r="CE313" s="14" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="CF313" s="13" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="314" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -84234,7 +84237,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="C314" s="15">
         <v>1</v>
@@ -84453,13 +84456,13 @@
         <v>94</v>
       </c>
       <c r="BW314" s="14" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="BX314" s="14" t="s">
         <v>94</v>
       </c>
       <c r="BY314" s="14" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="BZ314" s="14" t="s">
         <v>129</v>
@@ -84480,7 +84483,7 @@
         <v>108</v>
       </c>
       <c r="CF314" s="13" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="315" spans="1:84" ht="80" x14ac:dyDescent="0.2">
@@ -84488,7 +84491,7 @@
         <v>2</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C315" s="15">
         <v>1</v>
@@ -84713,13 +84716,13 @@
         <v>94</v>
       </c>
       <c r="BY315" s="14" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="BZ315" s="14" t="s">
         <v>129</v>
       </c>
       <c r="CA315" s="14" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="CB315" s="14">
         <v>1</v>
@@ -84734,7 +84737,7 @@
         <v>94</v>
       </c>
       <c r="CF315" s="13" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="316" spans="1:84" ht="96" x14ac:dyDescent="0.2">
@@ -84742,7 +84745,7 @@
         <v>2</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C316" s="15">
         <v>1</v>
@@ -84967,7 +84970,7 @@
         <v>94</v>
       </c>
       <c r="BY316" s="14" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="BZ316" s="14" t="s">
         <v>129</v>
@@ -84988,7 +84991,7 @@
         <v>108</v>
       </c>
       <c r="CF316" s="13" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="317" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -84996,7 +84999,7 @@
         <v>2</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C317" s="15">
         <v>1</v>
@@ -85221,7 +85224,7 @@
         <v>94</v>
       </c>
       <c r="BY317" s="14" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="BZ317" s="14" t="s">
         <v>129</v>
@@ -85242,7 +85245,7 @@
         <v>108</v>
       </c>
       <c r="CF317" s="13" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="318" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -85250,7 +85253,7 @@
         <v>2</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C318" s="15">
         <v>1</v>
@@ -85259,13 +85262,13 @@
         <v>92</v>
       </c>
       <c r="E318" s="19" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F318" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G318" s="19" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="H318" s="14" t="s">
         <v>95</v>
@@ -85469,19 +85472,19 @@
         <v>92</v>
       </c>
       <c r="BW318" s="14" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="BX318" s="14" t="s">
         <v>95</v>
       </c>
       <c r="BY318" s="14" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="BZ318" s="14" t="s">
         <v>104</v>
       </c>
       <c r="CA318" s="14" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="CB318" s="14">
         <v>3</v>
@@ -85490,13 +85493,13 @@
         <v>257</v>
       </c>
       <c r="CD318" s="14" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="CE318" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF318" s="13" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="319" spans="1:84" ht="208" x14ac:dyDescent="0.2">
@@ -85504,7 +85507,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C319" s="15">
         <v>1</v>
@@ -85531,7 +85534,7 @@
         <v>92</v>
       </c>
       <c r="K319" s="15" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="L319" s="15" t="s">
         <v>95</v>
@@ -85723,13 +85726,13 @@
         <v>94</v>
       </c>
       <c r="BW319" s="14" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="BX319" s="14" t="s">
         <v>94</v>
       </c>
       <c r="BY319" s="14" t="s">
-        <v>1217</v>
+        <v>1277</v>
       </c>
       <c r="BZ319" s="14" t="s">
         <v>104</v>
@@ -85741,16 +85744,16 @@
         <v>13</v>
       </c>
       <c r="CC319" s="14" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="CD319" s="14" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="CE319" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF319" s="13" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="320" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -85758,7 +85761,7 @@
         <v>2</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C320" s="15">
         <v>2</v>
@@ -85983,7 +85986,7 @@
         <v>95</v>
       </c>
       <c r="BY320" s="14" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="BZ320" s="14" t="s">
         <v>129</v>
@@ -86004,7 +86007,7 @@
         <v>94</v>
       </c>
       <c r="CF320" s="13" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="321" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -86012,7 +86015,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C321" s="15">
         <v>1</v>
@@ -86237,7 +86240,7 @@
         <v>95</v>
       </c>
       <c r="BY321" s="14" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="BZ321" s="14" t="s">
         <v>129</v>
@@ -86258,7 +86261,7 @@
         <v>94</v>
       </c>
       <c r="CF321" s="13" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="322" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -86266,7 +86269,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C322" s="15">
         <v>1</v>
@@ -86491,7 +86494,7 @@
         <v>95</v>
       </c>
       <c r="BY322" s="14" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="BZ322" s="14" t="s">
         <v>129</v>
@@ -86512,7 +86515,7 @@
         <v>94</v>
       </c>
       <c r="CF322" s="13" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="323" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -86520,7 +86523,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C323" s="15">
         <v>1</v>
@@ -86745,7 +86748,7 @@
         <v>95</v>
       </c>
       <c r="BY323" s="14" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="BZ323" s="14" t="s">
         <v>129</v>
@@ -86766,7 +86769,7 @@
         <v>94</v>
       </c>
       <c r="CF323" s="13" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="324" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -86774,7 +86777,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="C324" s="15">
         <v>2</v>
@@ -86999,7 +87002,7 @@
         <v>95</v>
       </c>
       <c r="BY324" s="14" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="BZ324" s="14" t="s">
         <v>129</v>
@@ -87020,7 +87023,7 @@
         <v>94</v>
       </c>
       <c r="CF324" s="13" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="325" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -87028,7 +87031,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C325" s="15">
         <v>2</v>
@@ -87142,7 +87145,7 @@
         <v>92</v>
       </c>
       <c r="AN325" s="14" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="AO325" s="14" t="s">
         <v>92</v>
@@ -87253,7 +87256,7 @@
         <v>95</v>
       </c>
       <c r="BY325" s="14" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="BZ325" s="14" t="s">
         <v>129</v>
@@ -87274,7 +87277,7 @@
         <v>94</v>
       </c>
       <c r="CF325" s="13" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="326" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -87282,7 +87285,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C326" s="15">
         <v>2</v>
@@ -87528,7 +87531,7 @@
         <v>94</v>
       </c>
       <c r="CF326" s="13" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="327" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -87536,7 +87539,7 @@
         <v>2</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="C327" s="15">
         <v>1</v>
@@ -87761,7 +87764,7 @@
         <v>95</v>
       </c>
       <c r="BY327" s="14" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="BZ327" s="14" t="s">
         <v>104</v>
@@ -87776,13 +87779,13 @@
         <v>106</v>
       </c>
       <c r="CD327" s="14" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="CE327" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF327" s="13" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="328" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -87790,7 +87793,7 @@
         <v>2</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C328" s="15">
         <v>1</v>
@@ -88036,7 +88039,7 @@
         <v>94</v>
       </c>
       <c r="CF328" s="13" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="329" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -88044,7 +88047,7 @@
         <v>2</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C329" s="15">
         <v>2</v>
@@ -88269,7 +88272,7 @@
         <v>95</v>
       </c>
       <c r="BY329" s="14" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="BZ329" s="14" t="s">
         <v>104</v>
@@ -88284,13 +88287,13 @@
         <v>257</v>
       </c>
       <c r="CD329" s="14" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="CE329" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF329" s="13" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="330" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -88298,7 +88301,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C330" s="15">
         <v>1</v>
@@ -88523,7 +88526,7 @@
         <v>95</v>
       </c>
       <c r="BY330" s="14" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="BZ330" s="14" t="s">
         <v>129</v>
@@ -88544,7 +88547,7 @@
         <v>94</v>
       </c>
       <c r="CF330" s="13" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="331" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -88552,7 +88555,7 @@
         <v>2</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C331" s="15">
         <v>2</v>
@@ -88798,7 +88801,7 @@
         <v>94</v>
       </c>
       <c r="CF331" s="13" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="332" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -88806,7 +88809,7 @@
         <v>2</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="C332" s="15">
         <v>2</v>
@@ -89031,7 +89034,7 @@
         <v>95</v>
       </c>
       <c r="BY332" s="16" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="BZ332" s="16" t="s">
         <v>129</v>
@@ -89052,7 +89055,7 @@
         <v>108</v>
       </c>
       <c r="CF332" s="13" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="333" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -89060,7 +89063,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="C333" s="15">
         <v>1</v>
@@ -89306,7 +89309,7 @@
         <v>94</v>
       </c>
       <c r="CF333" s="13" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="334" spans="1:84" ht="48" x14ac:dyDescent="0.2">
@@ -89314,7 +89317,7 @@
         <v>2</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="C334" s="15">
         <v>1</v>
@@ -89440,7 +89443,7 @@
         <v>95</v>
       </c>
       <c r="AR334" s="17" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AS334" s="14" t="s">
         <v>95</v>
@@ -89539,7 +89542,7 @@
         <v>95</v>
       </c>
       <c r="BY334" s="16" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="BZ334" s="16" t="s">
         <v>129</v>
@@ -89560,7 +89563,7 @@
         <v>94</v>
       </c>
       <c r="CF334" s="13" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="335" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -89568,7 +89571,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C335" s="15">
         <v>1</v>
@@ -89751,7 +89754,7 @@
         <v>92</v>
       </c>
       <c r="BK335" s="14" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="BL335" s="14" t="s">
         <v>94</v>
@@ -89793,7 +89796,7 @@
         <v>95</v>
       </c>
       <c r="BY335" s="16" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="BZ335" s="16" t="s">
         <v>129</v>
@@ -89814,7 +89817,7 @@
         <v>94</v>
       </c>
       <c r="CF335" s="13" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="336" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -89822,7 +89825,7 @@
         <v>2</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="C336" s="15">
         <v>1</v>
@@ -90005,7 +90008,7 @@
         <v>92</v>
       </c>
       <c r="BK336" s="14" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="BL336" s="14" t="s">
         <v>94</v>
@@ -90047,7 +90050,7 @@
         <v>95</v>
       </c>
       <c r="BY336" s="16" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="BZ336" s="16" t="s">
         <v>129</v>
@@ -90068,7 +90071,7 @@
         <v>108</v>
       </c>
       <c r="CF336" s="13" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="337" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -90076,7 +90079,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="C337" s="15">
         <v>1</v>
@@ -90202,7 +90205,7 @@
         <v>95</v>
       </c>
       <c r="AR337" s="17" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AS337" s="14" t="s">
         <v>95</v>
@@ -90299,7 +90302,7 @@
       </c>
       <c r="BX337" s="14"/>
       <c r="BY337" s="16" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="BZ337" s="16" t="s">
         <v>129</v>
@@ -90320,7 +90323,7 @@
         <v>108</v>
       </c>
       <c r="CF337" s="13" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="338" spans="1:84" ht="96" x14ac:dyDescent="0.2">
@@ -90328,7 +90331,7 @@
         <v>2</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C338" s="15">
         <v>1</v>
@@ -90355,7 +90358,7 @@
         <v>92</v>
       </c>
       <c r="K338" s="15" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="L338" s="15" t="s">
         <v>95</v>
@@ -90553,7 +90556,7 @@
         <v>95</v>
       </c>
       <c r="BY338" s="14" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="BZ338" s="14" t="s">
         <v>104</v>
@@ -90568,13 +90571,13 @@
         <v>641</v>
       </c>
       <c r="CD338" s="14" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="CE338" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF338" s="13" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="339" spans="1:84" ht="32" x14ac:dyDescent="0.2">
@@ -90582,7 +90585,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C339" s="15">
         <v>1</v>
@@ -90804,10 +90807,10 @@
         <v>94</v>
       </c>
       <c r="BX339" s="14" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="BY339" s="14" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="BZ339" s="14" t="s">
         <v>104</v>
@@ -90822,13 +90825,13 @@
         <v>372</v>
       </c>
       <c r="CD339" s="14" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="CE339" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF339" s="13" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="340" spans="1:84" ht="192" x14ac:dyDescent="0.2">
@@ -90836,7 +90839,7 @@
         <v>2</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C340" s="15">
         <v>1</v>
@@ -90863,7 +90866,7 @@
         <v>92</v>
       </c>
       <c r="K340" s="15" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="L340" s="15" t="s">
         <v>95</v>
@@ -90929,7 +90932,7 @@
         <v>92</v>
       </c>
       <c r="AG340" s="14" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="AH340" s="14" t="s">
         <v>92</v>
@@ -90950,7 +90953,7 @@
         <v>92</v>
       </c>
       <c r="AN340" s="14" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="AO340" s="14" t="s">
         <v>94</v>
@@ -90962,7 +90965,7 @@
         <v>92</v>
       </c>
       <c r="AR340" s="19" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="AS340" s="14" t="s">
         <v>95</v>
@@ -91058,10 +91061,10 @@
         <v>94</v>
       </c>
       <c r="BX340" s="14" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="BY340" s="14" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="BZ340" s="14" t="s">
         <v>104</v>
@@ -91073,16 +91076,16 @@
         <v>13</v>
       </c>
       <c r="CC340" s="14" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="CD340" s="14" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="CE340" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF340" s="13" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="341" spans="1:84" ht="160" x14ac:dyDescent="0.2">
@@ -91090,7 +91093,7 @@
         <v>2</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="C341" s="15">
         <v>1</v>
@@ -91225,7 +91228,7 @@
         <v>95</v>
       </c>
       <c r="AU341" s="19" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="AV341" s="14" t="s">
         <v>95</v>
@@ -91312,10 +91315,10 @@
         <v>94</v>
       </c>
       <c r="BX341" s="14" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="BY341" s="14" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="BZ341" s="14" t="s">
         <v>104</v>
@@ -91330,13 +91333,13 @@
         <v>676</v>
       </c>
       <c r="CD341" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="CE341" s="14" t="s">
         <v>108</v>
       </c>
       <c r="CF341" s="13" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="342" spans="1:84" ht="64" x14ac:dyDescent="0.2">
@@ -91344,7 +91347,7 @@
         <v>2</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="C342" s="15">
         <v>1</v>
@@ -91527,7 +91530,7 @@
         <v>95</v>
       </c>
       <c r="BK342" s="14" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="BL342" s="14" t="s">
         <v>194</v>
@@ -91569,7 +91572,7 @@
         <v>94</v>
       </c>
       <c r="BY342" s="14" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="BZ342" s="14" t="s">
         <v>104</v>
@@ -91578,19 +91581,19 @@
         <v>94</v>
       </c>
       <c r="CB342" s="14" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="CC342" s="14" t="s">
         <v>106</v>
       </c>
       <c r="CD342" s="14" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="CE342" s="14" t="s">
         <v>94</v>
       </c>
       <c r="CF342" s="13" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
   </sheetData>
